--- a/api/functions/Excel/001.xlsx
+++ b/api/functions/Excel/001.xlsx
@@ -335,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="89">
+  <borders count="88">
     <border>
       <left/>
       <right/>
@@ -1330,19 +1330,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1379,9 +1370,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1402,7 +1391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1853,9 +1842,6 @@
       <alignment horizontal="left"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="72" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0" hidden="0"/>
@@ -1863,7 +1849,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1872,17 +1858,20 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
       <protection locked="0" hidden="0"/>
@@ -1898,81 +1887,96 @@
       <alignment horizontal="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="71" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="71" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="19" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1996,21 +2000,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="16" fillId="3" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+      <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="0"/>
@@ -2029,9 +2039,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
       <protection locked="0" hidden="0"/>
@@ -2056,20 +2067,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2083,8 +2084,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="38" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -2098,7 +2099,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
@@ -2109,16 +2110,14 @@
     <xf numFmtId="0" fontId="24" fillId="7" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
@@ -2137,9 +2136,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="79" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="3" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="78" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -2150,10 +2146,11 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="19" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
@@ -2165,6 +2162,13 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0" hidden="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -2172,53 +2176,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2621,11 +2578,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AT5144"/>
+  <dimension ref="A1:AT177"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
+      <pane ySplit="6" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U169" sqref="U169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -2645,25 +2602,25 @@
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1" s="160" thickBot="1">
-      <c r="A1" s="264" t="inlineStr">
+      <c r="A1" s="265" t="inlineStr">
         <is>
           <t>Trädspecialister</t>
         </is>
       </c>
-      <c r="B1" s="263" t="n"/>
-      <c r="C1" s="263" t="n"/>
-      <c r="D1" s="265" t="n"/>
-      <c r="E1" s="249" t="inlineStr">
+      <c r="B1" s="206" t="n"/>
+      <c r="C1" s="206" t="n"/>
+      <c r="D1" s="266" t="n"/>
+      <c r="E1" s="250" t="inlineStr">
         <is>
           <t>Ärendenr: TRV 2021/12227</t>
         </is>
       </c>
-      <c r="F1" s="165" t="n"/>
-      <c r="G1" s="165" t="n"/>
-      <c r="H1" s="165" t="n"/>
-      <c r="I1" s="165" t="n"/>
-      <c r="J1" s="165" t="n"/>
-      <c r="K1" s="165" t="n"/>
+      <c r="F1" s="173" t="n"/>
+      <c r="G1" s="173" t="n"/>
+      <c r="H1" s="173" t="n"/>
+      <c r="I1" s="173" t="n"/>
+      <c r="J1" s="173" t="n"/>
+      <c r="K1" s="173" t="n"/>
       <c r="L1" s="63" t="n"/>
     </row>
     <row r="2" ht="15" customHeight="1" s="160">
@@ -2672,59 +2629,59 @@
           <t>Företag</t>
         </is>
       </c>
-      <c r="B2" s="285" t="inlineStr">
+      <c r="B2" s="289" t="inlineStr">
         <is>
           <t>Trädexperterna</t>
         </is>
       </c>
-      <c r="C2" s="220" t="n"/>
-      <c r="D2" s="286" t="n"/>
-      <c r="E2" s="219" t="inlineStr">
+      <c r="C2" s="225" t="n"/>
+      <c r="D2" s="290" t="n"/>
+      <c r="E2" s="224" t="inlineStr">
         <is>
           <t>Fakturaunderlag April 2013</t>
         </is>
       </c>
-      <c r="F2" s="220" t="n"/>
-      <c r="G2" s="220" t="n"/>
-      <c r="H2" s="220" t="n"/>
-      <c r="I2" s="220" t="n"/>
-      <c r="J2" s="220" t="n"/>
-      <c r="K2" s="220" t="n"/>
-      <c r="L2" s="220" t="n"/>
-      <c r="M2" s="220" t="n"/>
-      <c r="N2" s="220" t="n"/>
-      <c r="O2" s="220" t="n"/>
-      <c r="P2" s="220" t="n"/>
-      <c r="Q2" s="220" t="n"/>
-      <c r="R2" s="220" t="n"/>
-      <c r="S2" s="220" t="n"/>
-      <c r="T2" s="220" t="n"/>
-      <c r="U2" s="220" t="n"/>
-      <c r="V2" s="220" t="n"/>
-      <c r="W2" s="220" t="n"/>
-      <c r="X2" s="220" t="n"/>
-      <c r="Y2" s="220" t="n"/>
-      <c r="Z2" s="284" t="n"/>
-      <c r="AA2" s="220" t="n"/>
-      <c r="AB2" s="220" t="n"/>
-      <c r="AC2" s="220" t="n"/>
-      <c r="AD2" s="220" t="n"/>
-      <c r="AE2" s="220" t="n"/>
-      <c r="AF2" s="220" t="n"/>
-      <c r="AG2" s="220" t="n"/>
-      <c r="AH2" s="220" t="n"/>
-      <c r="AI2" s="220" t="n"/>
-      <c r="AJ2" s="220" t="n"/>
-      <c r="AK2" s="220" t="n"/>
-      <c r="AL2" s="220" t="n"/>
-      <c r="AM2" s="220" t="n"/>
-      <c r="AN2" s="220" t="n"/>
-      <c r="AO2" s="220" t="n"/>
-      <c r="AP2" s="220" t="n"/>
-      <c r="AQ2" s="220" t="n"/>
-      <c r="AR2" s="220" t="n"/>
-      <c r="AS2" s="220" t="n"/>
-      <c r="AT2" s="241" t="n"/>
+      <c r="F2" s="225" t="n"/>
+      <c r="G2" s="225" t="n"/>
+      <c r="H2" s="225" t="n"/>
+      <c r="I2" s="225" t="n"/>
+      <c r="J2" s="225" t="n"/>
+      <c r="K2" s="225" t="n"/>
+      <c r="L2" s="225" t="n"/>
+      <c r="M2" s="225" t="n"/>
+      <c r="N2" s="225" t="n"/>
+      <c r="O2" s="225" t="n"/>
+      <c r="P2" s="225" t="n"/>
+      <c r="Q2" s="225" t="n"/>
+      <c r="R2" s="225" t="n"/>
+      <c r="S2" s="225" t="n"/>
+      <c r="T2" s="225" t="n"/>
+      <c r="U2" s="225" t="n"/>
+      <c r="V2" s="225" t="n"/>
+      <c r="W2" s="225" t="n"/>
+      <c r="X2" s="225" t="n"/>
+      <c r="Y2" s="225" t="n"/>
+      <c r="Z2" s="288" t="n"/>
+      <c r="AA2" s="225" t="n"/>
+      <c r="AB2" s="225" t="n"/>
+      <c r="AC2" s="225" t="n"/>
+      <c r="AD2" s="225" t="n"/>
+      <c r="AE2" s="225" t="n"/>
+      <c r="AF2" s="225" t="n"/>
+      <c r="AG2" s="225" t="n"/>
+      <c r="AH2" s="225" t="n"/>
+      <c r="AI2" s="225" t="n"/>
+      <c r="AJ2" s="225" t="n"/>
+      <c r="AK2" s="225" t="n"/>
+      <c r="AL2" s="225" t="n"/>
+      <c r="AM2" s="225" t="n"/>
+      <c r="AN2" s="225" t="n"/>
+      <c r="AO2" s="225" t="n"/>
+      <c r="AP2" s="225" t="n"/>
+      <c r="AQ2" s="225" t="n"/>
+      <c r="AR2" s="225" t="n"/>
+      <c r="AS2" s="225" t="n"/>
+      <c r="AT2" s="286" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1" s="160" thickBot="1">
       <c r="A3" s="52" t="inlineStr">
@@ -2732,14 +2689,14 @@
           <t>Månad/År</t>
         </is>
       </c>
-      <c r="B3" s="250" t="inlineStr">
+      <c r="B3" s="251" t="inlineStr">
         <is>
           <t>April 2013</t>
         </is>
       </c>
-      <c r="D3" s="251" t="n"/>
-      <c r="E3" s="221" t="n"/>
-      <c r="AT3" s="170" t="n"/>
+      <c r="D3" s="252" t="n"/>
+      <c r="E3" s="226" t="n"/>
+      <c r="AT3" s="167" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="21" t="inlineStr">
@@ -2751,202 +2708,184 @@
         <v>552</v>
       </c>
       <c r="C4" s="26" t="n"/>
-      <c r="D4" s="179" t="n"/>
-      <c r="E4" s="268" t="n"/>
-      <c r="F4" s="224" t="inlineStr">
-        <is>
-          <t>V 13</t>
-        </is>
-      </c>
-      <c r="G4" s="179" t="n"/>
-      <c r="H4" s="179" t="n"/>
-      <c r="I4" s="179" t="n"/>
-      <c r="J4" s="179" t="n"/>
-      <c r="K4" s="179" t="n"/>
-      <c r="L4" s="180" t="n"/>
-      <c r="M4" s="202" t="inlineStr">
+      <c r="D4" s="176" t="n"/>
+      <c r="E4" s="269" t="n"/>
+      <c r="F4" s="229" t="inlineStr">
         <is>
           <t>V 14</t>
         </is>
       </c>
-      <c r="N4" s="179" t="n"/>
-      <c r="O4" s="179" t="n"/>
-      <c r="P4" s="179" t="n"/>
-      <c r="Q4" s="179" t="n"/>
-      <c r="R4" s="179" t="n"/>
-      <c r="S4" s="180" t="n"/>
-      <c r="T4" s="202" t="inlineStr">
+      <c r="G4" s="176" t="n"/>
+      <c r="H4" s="176" t="n"/>
+      <c r="I4" s="176" t="n"/>
+      <c r="J4" s="176" t="n"/>
+      <c r="K4" s="176" t="n"/>
+      <c r="L4" s="177" t="n"/>
+      <c r="M4" s="199" t="inlineStr">
         <is>
           <t>V 15</t>
         </is>
       </c>
-      <c r="U4" s="179" t="n"/>
-      <c r="V4" s="179" t="n"/>
-      <c r="W4" s="179" t="n"/>
-      <c r="X4" s="179" t="n"/>
-      <c r="Y4" s="179" t="n"/>
-      <c r="Z4" s="180" t="n"/>
-      <c r="AA4" s="178" t="inlineStr">
+      <c r="N4" s="176" t="n"/>
+      <c r="O4" s="176" t="n"/>
+      <c r="P4" s="176" t="n"/>
+      <c r="Q4" s="176" t="n"/>
+      <c r="R4" s="176" t="n"/>
+      <c r="S4" s="177" t="n"/>
+      <c r="T4" s="199" t="inlineStr">
         <is>
           <t>V 16</t>
         </is>
       </c>
-      <c r="AB4" s="179" t="n"/>
-      <c r="AC4" s="179" t="n"/>
-      <c r="AD4" s="179" t="n"/>
-      <c r="AE4" s="179" t="n"/>
-      <c r="AF4" s="179" t="n"/>
-      <c r="AG4" s="180" t="n"/>
-      <c r="AH4" s="260" t="inlineStr">
+      <c r="U4" s="176" t="n"/>
+      <c r="V4" s="176" t="n"/>
+      <c r="W4" s="176" t="n"/>
+      <c r="X4" s="176" t="n"/>
+      <c r="Y4" s="176" t="n"/>
+      <c r="Z4" s="177" t="n"/>
+      <c r="AA4" s="175" t="inlineStr">
         <is>
           <t>V 17</t>
         </is>
       </c>
-      <c r="AI4" s="179" t="n"/>
-      <c r="AJ4" s="179" t="n"/>
-      <c r="AK4" s="179" t="n"/>
-      <c r="AL4" s="179" t="n"/>
-      <c r="AM4" s="179" t="n"/>
-      <c r="AN4" s="180" t="n"/>
-      <c r="AO4" s="179" t="n"/>
-      <c r="AP4" s="179" t="n"/>
-      <c r="AQ4" s="179" t="n"/>
-      <c r="AR4" s="179" t="n"/>
-      <c r="AS4" s="180" t="n"/>
-      <c r="AT4" s="254" t="n"/>
+      <c r="AB4" s="176" t="n"/>
+      <c r="AC4" s="176" t="n"/>
+      <c r="AD4" s="176" t="n"/>
+      <c r="AE4" s="176" t="n"/>
+      <c r="AF4" s="176" t="n"/>
+      <c r="AG4" s="177" t="n"/>
+      <c r="AH4" s="261" t="n"/>
+      <c r="AI4" s="176" t="n"/>
+      <c r="AJ4" s="176" t="n"/>
+      <c r="AK4" s="176" t="n"/>
+      <c r="AL4" s="176" t="n"/>
+      <c r="AM4" s="176" t="n"/>
+      <c r="AN4" s="177" t="n"/>
+      <c r="AO4" s="176" t="n"/>
+      <c r="AP4" s="176" t="n"/>
+      <c r="AQ4" s="176" t="n"/>
+      <c r="AR4" s="176" t="n"/>
+      <c r="AS4" s="177" t="n"/>
+      <c r="AT4" s="255" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="245" t="inlineStr">
+      <c r="A5" s="246" t="inlineStr">
         <is>
           <t>Personal, Namn</t>
         </is>
       </c>
-      <c r="B5" s="246" t="n"/>
-      <c r="C5" s="245" t="inlineStr">
+      <c r="B5" s="247" t="n"/>
+      <c r="C5" s="246" t="inlineStr">
         <is>
           <t>Kategori</t>
         </is>
       </c>
-      <c r="D5" s="246" t="n"/>
-      <c r="E5" s="269" t="n"/>
+      <c r="D5" s="247" t="n"/>
+      <c r="E5" s="270" t="n"/>
       <c r="F5" s="61" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="59" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" s="59" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" s="59" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" s="59" t="n">
+        <v>7</v>
+      </c>
+      <c r="K5" s="59" t="n">
+        <v>8</v>
+      </c>
+      <c r="L5" s="59" t="n">
+        <v>9</v>
+      </c>
+      <c r="M5" s="59" t="n">
+        <v>10</v>
+      </c>
+      <c r="N5" s="59" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" s="59" t="n">
+        <v>12</v>
+      </c>
+      <c r="P5" s="59" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="59" t="n">
+        <v>14</v>
+      </c>
+      <c r="R5" s="59" t="n">
+        <v>15</v>
+      </c>
+      <c r="S5" s="59" t="n">
+        <v>16</v>
+      </c>
+      <c r="T5" s="59" t="n">
+        <v>17</v>
+      </c>
+      <c r="U5" s="59" t="n">
+        <v>18</v>
+      </c>
+      <c r="V5" s="59" t="n">
+        <v>19</v>
+      </c>
+      <c r="W5" s="59" t="n">
+        <v>20</v>
+      </c>
+      <c r="X5" s="59" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y5" s="59" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z5" s="59" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA5" s="59" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB5" s="59" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC5" s="59" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD5" s="59" t="n">
         <v>27</v>
       </c>
-      <c r="G5" s="59" t="n">
+      <c r="AE5" s="59" t="n">
         <v>28</v>
       </c>
-      <c r="H5" s="59" t="n">
+      <c r="AF5" s="59" t="n">
         <v>29</v>
       </c>
-      <c r="I5" s="59" t="n">
+      <c r="AG5" s="59" t="n">
         <v>30</v>
       </c>
-      <c r="J5" s="59" t="n">
-        <v>31</v>
-      </c>
-      <c r="K5" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="59" t="n">
-        <v>2</v>
-      </c>
-      <c r="M5" s="59" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" s="59" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" s="59" t="n">
-        <v>5</v>
-      </c>
-      <c r="P5" s="59" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="59" t="n">
-        <v>7</v>
-      </c>
-      <c r="R5" s="59" t="n">
-        <v>8</v>
-      </c>
-      <c r="S5" s="59" t="n">
-        <v>9</v>
-      </c>
-      <c r="T5" s="59" t="n">
-        <v>10</v>
-      </c>
-      <c r="U5" s="59" t="n">
-        <v>11</v>
-      </c>
-      <c r="V5" s="59" t="n">
-        <v>12</v>
-      </c>
-      <c r="W5" s="59" t="n">
-        <v>13</v>
-      </c>
-      <c r="X5" s="59" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y5" s="59" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z5" s="59" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA5" s="59" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB5" s="59" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC5" s="59" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD5" s="59" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE5" s="59" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF5" s="59" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG5" s="59" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH5" s="59" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI5" s="59" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ5" s="59" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK5" s="59" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL5" s="59" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM5" s="59" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN5" s="59" t="n">
-        <v>30</v>
-      </c>
+      <c r="AH5" s="59" t="n"/>
+      <c r="AI5" s="59" t="n"/>
+      <c r="AJ5" s="59" t="n"/>
+      <c r="AK5" s="59" t="n"/>
+      <c r="AL5" s="59" t="n"/>
+      <c r="AM5" s="59" t="n"/>
+      <c r="AN5" s="59" t="n"/>
       <c r="AO5" s="59" t="n"/>
       <c r="AP5" s="59" t="n"/>
       <c r="AQ5" s="59" t="n"/>
       <c r="AR5" s="59" t="n"/>
       <c r="AS5" s="59" t="n"/>
-      <c r="AT5" s="255" t="n"/>
+      <c r="AT5" s="256" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="247" t="n"/>
-      <c r="B6" s="248" t="n"/>
-      <c r="C6" s="247" t="n"/>
-      <c r="D6" s="248" t="n"/>
-      <c r="E6" s="269" t="n"/>
+      <c r="A6" s="248" t="n"/>
+      <c r="B6" s="249" t="n"/>
+      <c r="C6" s="248" t="n"/>
+      <c r="D6" s="249" t="n"/>
+      <c r="E6" s="270" t="n"/>
       <c r="F6" s="32" t="inlineStr">
         <is>
           <t xml:space="preserve">Må  </t>
@@ -3147,21 +3086,21 @@
           <t>Fr</t>
         </is>
       </c>
-      <c r="AT6" s="255" t="n"/>
+      <c r="AT6" s="256" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="214" t="inlineStr">
+      <c r="A7" s="217" t="inlineStr">
         <is>
           <t>David Allen</t>
         </is>
       </c>
-      <c r="B7" s="198" t="n"/>
-      <c r="C7" s="282" t="inlineStr">
+      <c r="B7" s="196" t="n"/>
+      <c r="C7" s="283" t="inlineStr">
         <is>
           <t>Platschef</t>
         </is>
       </c>
-      <c r="D7" s="198" t="n"/>
+      <c r="D7" s="196" t="n"/>
       <c r="E7" s="84" t="n"/>
       <c r="F7" s="85" t="n"/>
       <c r="G7" s="85" t="n"/>
@@ -3170,25 +3109,25 @@
       <c r="J7" s="86" t="n"/>
       <c r="K7" s="87" t="n"/>
       <c r="L7" s="88" t="n"/>
-      <c r="M7" s="85" t="n">
-        <v>8</v>
-      </c>
-      <c r="N7" s="85" t="n">
-        <v>8</v>
-      </c>
-      <c r="O7" s="85" t="n">
-        <v>8</v>
-      </c>
-      <c r="P7" s="85" t="n">
-        <v>8</v>
-      </c>
+      <c r="M7" s="85" t="n"/>
+      <c r="N7" s="85" t="n"/>
+      <c r="O7" s="85" t="n"/>
+      <c r="P7" s="85" t="n"/>
       <c r="Q7" s="86" t="n"/>
       <c r="R7" s="87" t="n"/>
       <c r="S7" s="88" t="n"/>
-      <c r="T7" s="88" t="n"/>
-      <c r="U7" s="88" t="n"/>
-      <c r="V7" s="88" t="n"/>
-      <c r="W7" s="88" t="n"/>
+      <c r="T7" s="88" t="n">
+        <v>8</v>
+      </c>
+      <c r="U7" s="88" t="n">
+        <v>8</v>
+      </c>
+      <c r="V7" s="88" t="n">
+        <v>8</v>
+      </c>
+      <c r="W7" s="88" t="n">
+        <v>8</v>
+      </c>
       <c r="X7" s="87" t="n"/>
       <c r="Y7" s="87" t="n"/>
       <c r="Z7" s="87" t="n"/>
@@ -3268,13 +3207,13 @@
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="160" thickBot="1">
-      <c r="A9" s="223" t="inlineStr">
+      <c r="A9" s="227" t="inlineStr">
         <is>
           <t>Personal, Namn</t>
         </is>
       </c>
       <c r="B9" s="162" t="n"/>
-      <c r="C9" s="212" t="inlineStr">
+      <c r="C9" s="215" t="inlineStr">
         <is>
           <t>Trädbesiktare</t>
         </is>
@@ -3333,37 +3272,37 @@
         </is>
       </c>
       <c r="B10" s="162" t="n"/>
-      <c r="C10" s="200" t="n"/>
-      <c r="D10" s="184" t="n"/>
+      <c r="C10" s="198" t="n"/>
+      <c r="D10" s="180" t="n"/>
       <c r="E10" s="84" t="n"/>
-      <c r="F10" s="85" t="n"/>
-      <c r="G10" s="85" t="n"/>
-      <c r="H10" s="85" t="n"/>
-      <c r="I10" s="85" t="n"/>
-      <c r="J10" s="85" t="n"/>
-      <c r="K10" s="87" t="n"/>
-      <c r="L10" s="88" t="n"/>
-      <c r="M10" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="85" t="n">
+      <c r="F10" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="85" t="n">
         <v>8</v>
       </c>
-      <c r="O10" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="88" t="n">
-        <v>0</v>
-      </c>
+      <c r="H10" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="85" t="n"/>
+      <c r="N10" s="85" t="n"/>
+      <c r="O10" s="85" t="n"/>
+      <c r="P10" s="85" t="n"/>
+      <c r="Q10" s="85" t="n"/>
+      <c r="R10" s="87" t="n"/>
+      <c r="S10" s="88" t="n"/>
       <c r="T10" s="88" t="n"/>
       <c r="U10" s="88" t="n"/>
       <c r="V10" s="88" t="n"/>
@@ -3405,34 +3344,34 @@
       <c r="C11" s="161" t="n"/>
       <c r="D11" s="162" t="n"/>
       <c r="E11" s="84" t="n"/>
-      <c r="F11" s="85" t="n"/>
-      <c r="G11" s="85" t="n"/>
-      <c r="H11" s="85" t="n"/>
-      <c r="I11" s="85" t="n"/>
-      <c r="J11" s="85" t="n"/>
-      <c r="K11" s="87" t="n"/>
-      <c r="L11" s="87" t="n"/>
-      <c r="M11" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="85" t="n">
+      <c r="F11" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="85" t="n">
         <v>8</v>
       </c>
-      <c r="O11" s="85" t="n">
+      <c r="H11" s="85" t="n">
         <v>8</v>
       </c>
-      <c r="P11" s="85" t="n">
+      <c r="I11" s="85" t="n">
         <v>8</v>
       </c>
-      <c r="Q11" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="85" t="n"/>
+      <c r="N11" s="85" t="n"/>
+      <c r="O11" s="85" t="n"/>
+      <c r="P11" s="85" t="n"/>
+      <c r="Q11" s="85" t="n"/>
+      <c r="R11" s="87" t="n"/>
+      <c r="S11" s="87" t="n"/>
       <c r="T11" s="87" t="n"/>
       <c r="U11" s="87" t="n"/>
       <c r="V11" s="87" t="n"/>
@@ -3474,34 +3413,34 @@
       <c r="C12" s="161" t="n"/>
       <c r="D12" s="162" t="n"/>
       <c r="E12" s="84" t="n"/>
-      <c r="F12" s="85" t="n"/>
-      <c r="G12" s="85" t="n"/>
-      <c r="H12" s="85" t="n"/>
-      <c r="I12" s="85" t="n"/>
-      <c r="J12" s="85" t="n"/>
-      <c r="K12" s="87" t="n"/>
-      <c r="L12" s="87" t="n"/>
-      <c r="M12" s="85" t="n">
+      <c r="F12" s="85" t="n">
         <v>8</v>
       </c>
-      <c r="N12" s="85" t="n">
+      <c r="G12" s="85" t="n">
         <v>8</v>
       </c>
-      <c r="O12" s="85" t="n">
+      <c r="H12" s="85" t="n">
         <v>8</v>
       </c>
-      <c r="P12" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="85" t="n"/>
+      <c r="N12" s="85" t="n"/>
+      <c r="O12" s="85" t="n"/>
+      <c r="P12" s="85" t="n"/>
+      <c r="Q12" s="85" t="n"/>
+      <c r="R12" s="87" t="n"/>
+      <c r="S12" s="87" t="n"/>
       <c r="T12" s="87" t="n"/>
       <c r="U12" s="87" t="n"/>
       <c r="V12" s="87" t="n"/>
@@ -3540,46 +3479,44 @@
         </is>
       </c>
       <c r="B13" s="162" t="n"/>
-      <c r="C13" s="257" t="n"/>
-      <c r="D13" s="210" t="n"/>
+      <c r="C13" s="223" t="n"/>
+      <c r="D13" s="209" t="n"/>
       <c r="E13" s="84" t="n"/>
-      <c r="F13" s="85" t="n">
-        <v>0</v>
-      </c>
+      <c r="F13" s="85" t="n"/>
       <c r="G13" s="85" t="n"/>
       <c r="H13" s="85" t="n"/>
       <c r="I13" s="85" t="n"/>
       <c r="J13" s="85" t="n"/>
       <c r="K13" s="87" t="n"/>
       <c r="L13" s="87" t="n"/>
-      <c r="M13" s="85" t="n"/>
-      <c r="N13" s="85" t="n"/>
-      <c r="O13" s="85" t="n"/>
-      <c r="P13" s="85" t="n"/>
-      <c r="Q13" s="85" t="n"/>
-      <c r="R13" s="87" t="n"/>
-      <c r="S13" s="87" t="n"/>
-      <c r="T13" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" s="87" t="n">
+      <c r="M13" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="85" t="n">
         <v>8</v>
       </c>
-      <c r="V13" s="87" t="n">
+      <c r="O13" s="85" t="n">
         <v>8</v>
       </c>
-      <c r="W13" s="87" t="n">
+      <c r="P13" s="85" t="n">
         <v>8</v>
       </c>
-      <c r="X13" s="87" t="n">
+      <c r="Q13" s="85" t="n">
         <v>8</v>
       </c>
-      <c r="Y13" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="87" t="n">
-        <v>0</v>
-      </c>
+      <c r="R13" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" s="87" t="n"/>
+      <c r="U13" s="87" t="n"/>
+      <c r="V13" s="87" t="n"/>
+      <c r="W13" s="87" t="n"/>
+      <c r="X13" s="87" t="n"/>
+      <c r="Y13" s="87" t="n"/>
+      <c r="Z13" s="87" t="n"/>
       <c r="AA13" s="85" t="n"/>
       <c r="AB13" s="85" t="n"/>
       <c r="AC13" s="85" t="n"/>
@@ -3607,8 +3544,8 @@
     <row r="14">
       <c r="A14" s="163" t="n"/>
       <c r="B14" s="162" t="n"/>
-      <c r="C14" s="257" t="n"/>
-      <c r="D14" s="210" t="n"/>
+      <c r="C14" s="223" t="n"/>
+      <c r="D14" s="209" t="n"/>
       <c r="E14" s="84" t="n"/>
       <c r="F14" s="97" t="n"/>
       <c r="G14" s="97" t="n"/>
@@ -3707,13 +3644,13 @@
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="160" thickBot="1">
-      <c r="A16" s="185" t="inlineStr">
+      <c r="A16" s="181" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
       <c r="B16" s="162" t="n"/>
-      <c r="C16" s="185" t="n"/>
+      <c r="C16" s="181" t="n"/>
       <c r="D16" s="162" t="n"/>
       <c r="E16" s="84" t="n"/>
       <c r="F16" s="85" t="n"/>
@@ -3762,18 +3699,18 @@
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="160" thickBot="1">
-      <c r="A17" s="223" t="inlineStr">
+      <c r="A17" s="227" t="inlineStr">
         <is>
           <t>Personal, Namn</t>
         </is>
       </c>
       <c r="B17" s="162" t="n"/>
-      <c r="C17" s="253" t="inlineStr">
+      <c r="C17" s="254" t="inlineStr">
         <is>
           <t>Kategori  Km ersättning</t>
         </is>
       </c>
-      <c r="D17" s="184" t="n"/>
+      <c r="D17" s="180" t="n"/>
       <c r="E17" s="84" t="n"/>
       <c r="F17" s="98" t="n"/>
       <c r="G17" s="99" t="n"/>
@@ -3827,7 +3764,7 @@
         </is>
       </c>
       <c r="B18" s="162" t="n"/>
-      <c r="C18" s="191" t="inlineStr">
+      <c r="C18" s="185" t="inlineStr">
         <is>
           <t xml:space="preserve"> Trädbesiktare/Platchef</t>
         </is>
@@ -3835,16 +3772,16 @@
       <c r="D18" s="162" t="n"/>
       <c r="E18" s="84" t="n"/>
       <c r="F18" s="86" t="n"/>
-      <c r="G18" s="86" t="n"/>
+      <c r="G18" s="86" t="n">
+        <v>46</v>
+      </c>
       <c r="H18" s="86" t="n"/>
       <c r="I18" s="86" t="n"/>
       <c r="J18" s="86" t="n"/>
       <c r="K18" s="86" t="n"/>
       <c r="L18" s="86" t="n"/>
       <c r="M18" s="86" t="n"/>
-      <c r="N18" s="86" t="n">
-        <v>46</v>
-      </c>
+      <c r="N18" s="86" t="n"/>
       <c r="O18" s="86" t="n"/>
       <c r="P18" s="86" t="n"/>
       <c r="Q18" s="86" t="n"/>
@@ -3888,26 +3825,26 @@
         </is>
       </c>
       <c r="B19" s="162" t="n"/>
-      <c r="C19" s="185" t="n"/>
+      <c r="C19" s="181" t="n"/>
       <c r="D19" s="162" t="n"/>
       <c r="E19" s="84" t="n"/>
       <c r="F19" s="86" t="n"/>
-      <c r="G19" s="86" t="n"/>
-      <c r="H19" s="86" t="n"/>
-      <c r="I19" s="86" t="n"/>
+      <c r="G19" s="86" t="n">
+        <v>328</v>
+      </c>
+      <c r="H19" s="86" t="n">
+        <v>328</v>
+      </c>
+      <c r="I19" s="86" t="n">
+        <v>328</v>
+      </c>
       <c r="J19" s="86" t="n"/>
       <c r="K19" s="86" t="n"/>
       <c r="L19" s="86" t="n"/>
       <c r="M19" s="86" t="n"/>
-      <c r="N19" s="86" t="n">
-        <v>328</v>
-      </c>
-      <c r="O19" s="86" t="n">
-        <v>328</v>
-      </c>
-      <c r="P19" s="86" t="n">
-        <v>328</v>
-      </c>
+      <c r="N19" s="86" t="n"/>
+      <c r="O19" s="86" t="n"/>
+      <c r="P19" s="86" t="n"/>
       <c r="Q19" s="86" t="n"/>
       <c r="R19" s="86" t="n"/>
       <c r="S19" s="86" t="n"/>
@@ -3945,7 +3882,7 @@
     <row r="20" customFormat="1" s="27">
       <c r="A20" s="163" t="n"/>
       <c r="B20" s="162" t="n"/>
-      <c r="C20" s="185" t="n"/>
+      <c r="C20" s="181" t="n"/>
       <c r="D20" s="162" t="n"/>
       <c r="E20" s="84" t="n"/>
       <c r="F20" s="86" t="n"/>
@@ -3996,7 +3933,7 @@
     <row r="21" customFormat="1" s="27">
       <c r="A21" s="163" t="n"/>
       <c r="B21" s="162" t="n"/>
-      <c r="C21" s="185" t="n"/>
+      <c r="C21" s="181" t="n"/>
       <c r="D21" s="162" t="n"/>
       <c r="E21" s="84" t="n"/>
       <c r="F21" s="86" t="n"/>
@@ -4047,7 +3984,7 @@
     <row r="22" customFormat="1" s="27">
       <c r="A22" s="163" t="n"/>
       <c r="B22" s="162" t="n"/>
-      <c r="C22" s="185" t="n"/>
+      <c r="C22" s="181" t="n"/>
       <c r="D22" s="162" t="n"/>
       <c r="E22" s="84" t="n"/>
       <c r="F22" s="86" t="n"/>
@@ -4098,7 +4035,7 @@
     <row r="23">
       <c r="A23" s="161" t="n"/>
       <c r="B23" s="162" t="n"/>
-      <c r="C23" s="237" t="n"/>
+      <c r="C23" s="244" t="n"/>
       <c r="D23" s="162" t="n"/>
       <c r="E23" s="84" t="n"/>
       <c r="F23" s="86" t="n"/>
@@ -4147,10 +4084,10 @@
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="160" thickBot="1">
-      <c r="A24" s="185" t="n"/>
+      <c r="A24" s="181" t="n"/>
       <c r="B24" s="162" t="n"/>
-      <c r="C24" s="207" t="n"/>
-      <c r="D24" s="184" t="n"/>
+      <c r="C24" s="204" t="n"/>
+      <c r="D24" s="180" t="n"/>
       <c r="E24" s="84" t="n"/>
       <c r="F24" s="86" t="n"/>
       <c r="G24" s="86" t="n"/>
@@ -4198,13 +4135,13 @@
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="160" thickBot="1">
-      <c r="A25" s="223" t="inlineStr">
+      <c r="A25" s="227" t="inlineStr">
         <is>
           <t>Personal, Namn</t>
         </is>
       </c>
       <c r="B25" s="162" t="n"/>
-      <c r="C25" s="212" t="inlineStr">
+      <c r="C25" s="215" t="inlineStr">
         <is>
           <t>Motormanuella arborister</t>
         </is>
@@ -4257,14 +4194,14 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="223" t="inlineStr">
+      <c r="A26" s="227" t="inlineStr">
         <is>
           <t xml:space="preserve">  Arbetslag Nr 1</t>
         </is>
       </c>
       <c r="B26" s="162" t="n"/>
-      <c r="C26" s="209" t="n"/>
-      <c r="D26" s="210" t="n"/>
+      <c r="C26" s="208" t="n"/>
+      <c r="D26" s="209" t="n"/>
       <c r="E26" s="84" t="n"/>
       <c r="F26" s="106" t="n"/>
       <c r="G26" s="106" t="n"/>
@@ -4325,27 +4262,13 @@
       <c r="J27" s="88" t="n"/>
       <c r="K27" s="87" t="n"/>
       <c r="L27" s="87" t="n"/>
-      <c r="M27" s="88" t="n">
-        <v>8</v>
-      </c>
-      <c r="N27" s="88" t="n">
-        <v>8</v>
-      </c>
-      <c r="O27" s="88" t="n">
-        <v>8</v>
-      </c>
-      <c r="P27" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" s="87" t="n">
-        <v>0</v>
-      </c>
+      <c r="M27" s="88" t="n"/>
+      <c r="N27" s="88" t="n"/>
+      <c r="O27" s="88" t="n"/>
+      <c r="P27" s="88" t="n"/>
+      <c r="Q27" s="88" t="n"/>
+      <c r="R27" s="87" t="n"/>
+      <c r="S27" s="87" t="n"/>
       <c r="T27" s="87" t="n"/>
       <c r="U27" s="87" t="n"/>
       <c r="V27" s="87" t="n"/>
@@ -4353,20 +4276,36 @@
       <c r="X27" s="87" t="n"/>
       <c r="Y27" s="87" t="n"/>
       <c r="Z27" s="87" t="n"/>
-      <c r="AA27" s="88" t="n"/>
-      <c r="AB27" s="88" t="n"/>
-      <c r="AC27" s="88" t="n"/>
-      <c r="AD27" s="88" t="n"/>
-      <c r="AE27" s="88" t="n"/>
-      <c r="AF27" s="87" t="n"/>
-      <c r="AG27" s="87" t="n"/>
+      <c r="AA27" s="88" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB27" s="88" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC27" s="88" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD27" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="87" t="n">
+        <v>0</v>
+      </c>
       <c r="AH27" s="87" t="n"/>
       <c r="AI27" s="87" t="n"/>
       <c r="AJ27" s="87" t="n"/>
       <c r="AK27" s="87" t="n"/>
       <c r="AL27" s="87" t="n"/>
       <c r="AM27" s="87" t="n"/>
-      <c r="AN27" s="87" t="n"/>
+      <c r="AN27" s="87" t="n">
+        <v>0</v>
+      </c>
       <c r="AO27" s="87" t="n"/>
       <c r="AP27" s="87" t="n"/>
       <c r="AQ27" s="87" t="n"/>
@@ -4394,34 +4333,34 @@
       <c r="J28" s="88" t="n"/>
       <c r="K28" s="87" t="n"/>
       <c r="L28" s="87" t="n"/>
-      <c r="M28" s="88" t="n">
+      <c r="M28" s="88" t="n"/>
+      <c r="N28" s="88" t="n"/>
+      <c r="O28" s="88" t="n"/>
+      <c r="P28" s="88" t="n"/>
+      <c r="Q28" s="88" t="n"/>
+      <c r="R28" s="87" t="n"/>
+      <c r="S28" s="87" t="n"/>
+      <c r="T28" s="87" t="n">
         <v>8</v>
       </c>
-      <c r="N28" s="88" t="n">
+      <c r="U28" s="87" t="n">
         <v>8</v>
       </c>
-      <c r="O28" s="88" t="n">
+      <c r="V28" s="87" t="n">
         <v>8</v>
       </c>
-      <c r="P28" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" s="87" t="n"/>
-      <c r="U28" s="87" t="n"/>
-      <c r="V28" s="87" t="n"/>
-      <c r="W28" s="87" t="n"/>
-      <c r="X28" s="87" t="n"/>
-      <c r="Y28" s="87" t="n"/>
-      <c r="Z28" s="87" t="n"/>
+      <c r="W28" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="87" t="n">
+        <v>0</v>
+      </c>
       <c r="AA28" s="88" t="n"/>
       <c r="AB28" s="88" t="n"/>
       <c r="AC28" s="88" t="n"/>
@@ -4435,7 +4374,9 @@
       <c r="AK28" s="87" t="n"/>
       <c r="AL28" s="87" t="n"/>
       <c r="AM28" s="87" t="n"/>
-      <c r="AN28" s="87" t="n"/>
+      <c r="AN28" s="87" t="n">
+        <v>0</v>
+      </c>
       <c r="AO28" s="87" t="n"/>
       <c r="AP28" s="87" t="n"/>
       <c r="AQ28" s="87" t="n"/>
@@ -4456,34 +4397,34 @@
       <c r="C29" s="161" t="n"/>
       <c r="D29" s="162" t="n"/>
       <c r="E29" s="84" t="n"/>
-      <c r="F29" s="88" t="n"/>
-      <c r="G29" s="88" t="n"/>
-      <c r="H29" s="88" t="n"/>
-      <c r="I29" s="88" t="n"/>
-      <c r="J29" s="88" t="n"/>
-      <c r="K29" s="87" t="n"/>
-      <c r="L29" s="87" t="n"/>
-      <c r="M29" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" s="88" t="n">
+      <c r="F29" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="88" t="n">
         <v>8</v>
       </c>
-      <c r="P29" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" s="87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="88" t="n"/>
+      <c r="N29" s="88" t="n"/>
+      <c r="O29" s="88" t="n"/>
+      <c r="P29" s="88" t="n"/>
+      <c r="Q29" s="88" t="n"/>
+      <c r="R29" s="87" t="n"/>
+      <c r="S29" s="87" t="n"/>
       <c r="T29" s="87" t="n"/>
       <c r="U29" s="87" t="n"/>
       <c r="V29" s="87" t="n"/>
@@ -4525,34 +4466,34 @@
       <c r="C30" s="161" t="n"/>
       <c r="D30" s="162" t="n"/>
       <c r="E30" s="84" t="n"/>
-      <c r="F30" s="88" t="n"/>
-      <c r="G30" s="88" t="n"/>
-      <c r="H30" s="88" t="n"/>
-      <c r="I30" s="88" t="n"/>
-      <c r="J30" s="88" t="n"/>
-      <c r="K30" s="87" t="n"/>
-      <c r="L30" s="87" t="n"/>
-      <c r="M30" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" s="88" t="n">
+      <c r="F30" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="88" t="n">
         <v>8</v>
       </c>
-      <c r="Q30" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" s="87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="88" t="n"/>
+      <c r="N30" s="88" t="n"/>
+      <c r="O30" s="88" t="n"/>
+      <c r="P30" s="88" t="n"/>
+      <c r="Q30" s="88" t="n"/>
+      <c r="R30" s="87" t="n"/>
+      <c r="S30" s="87" t="n"/>
       <c r="T30" s="87" t="n"/>
       <c r="U30" s="87" t="n"/>
       <c r="V30" s="87" t="n"/>
@@ -4573,7 +4514,9 @@
       <c r="AK30" s="87" t="n"/>
       <c r="AL30" s="87" t="n"/>
       <c r="AM30" s="87" t="n"/>
-      <c r="AN30" s="87" t="n"/>
+      <c r="AN30" s="87" t="n">
+        <v>0</v>
+      </c>
       <c r="AO30" s="87" t="n"/>
       <c r="AP30" s="87" t="n"/>
       <c r="AQ30" s="87" t="n"/>
@@ -4591,37 +4534,37 @@
         </is>
       </c>
       <c r="B31" s="162" t="n"/>
-      <c r="C31" s="199" t="n"/>
-      <c r="D31" s="184" t="n"/>
+      <c r="C31" s="197" t="n"/>
+      <c r="D31" s="180" t="n"/>
       <c r="E31" s="84" t="n"/>
-      <c r="F31" s="88" t="n"/>
-      <c r="G31" s="88" t="n"/>
-      <c r="H31" s="88" t="n"/>
-      <c r="I31" s="88" t="n"/>
-      <c r="J31" s="88" t="n"/>
-      <c r="K31" s="87" t="n"/>
-      <c r="L31" s="87" t="n"/>
-      <c r="M31" s="88" t="n">
+      <c r="F31" s="88" t="n">
         <v>8</v>
       </c>
-      <c r="N31" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" s="88" t="n">
+      <c r="G31" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="88" t="n">
         <v>8</v>
       </c>
-      <c r="Q31" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" s="87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="88" t="n"/>
+      <c r="N31" s="88" t="n"/>
+      <c r="O31" s="88" t="n"/>
+      <c r="P31" s="88" t="n"/>
+      <c r="Q31" s="88" t="n"/>
+      <c r="R31" s="87" t="n"/>
+      <c r="S31" s="87" t="n"/>
       <c r="T31" s="87" t="n"/>
       <c r="U31" s="87" t="n"/>
       <c r="V31" s="87" t="n"/>
@@ -4707,7 +4650,7 @@
     <row r="33">
       <c r="A33" s="161" t="n"/>
       <c r="B33" s="162" t="n"/>
-      <c r="C33" s="185" t="n"/>
+      <c r="C33" s="181" t="n"/>
       <c r="D33" s="162" t="n"/>
       <c r="E33" s="84" t="n"/>
       <c r="F33" s="88" t="n"/>
@@ -4758,7 +4701,7 @@
     <row r="34">
       <c r="A34" s="161" t="n"/>
       <c r="B34" s="162" t="n"/>
-      <c r="C34" s="185" t="n"/>
+      <c r="C34" s="181" t="n"/>
       <c r="D34" s="162" t="n"/>
       <c r="E34" s="84" t="n"/>
       <c r="F34" s="88" t="n"/>
@@ -4860,7 +4803,7 @@
     <row r="36" ht="15" customHeight="1" s="160" thickBot="1">
       <c r="A36" s="161" t="n"/>
       <c r="B36" s="162" t="n"/>
-      <c r="C36" s="185" t="n"/>
+      <c r="C36" s="181" t="n"/>
       <c r="D36" s="162" t="n"/>
       <c r="E36" s="84" t="n"/>
       <c r="F36" s="88" t="n"/>
@@ -4909,13 +4852,13 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="223" t="inlineStr">
+      <c r="A37" s="227" t="inlineStr">
         <is>
           <t xml:space="preserve"> Arbetslag Nr 2</t>
         </is>
       </c>
       <c r="B37" s="162" t="n"/>
-      <c r="C37" s="212" t="inlineStr">
+      <c r="C37" s="215" t="inlineStr">
         <is>
           <t>Motormanuella arborister</t>
         </is>
@@ -5220,7 +5163,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="283" t="n"/>
+      <c r="A43" s="284" t="n"/>
       <c r="B43" s="162" t="n"/>
       <c r="C43" s="161" t="n"/>
       <c r="D43" s="162" t="n"/>
@@ -5322,7 +5265,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="185" t="n"/>
+      <c r="A45" s="181" t="n"/>
       <c r="B45" s="162" t="n"/>
       <c r="C45" s="161" t="n"/>
       <c r="D45" s="162" t="n"/>
@@ -5373,7 +5316,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="185" t="n"/>
+      <c r="A46" s="181" t="n"/>
       <c r="B46" s="162" t="n"/>
       <c r="C46" s="161" t="n"/>
       <c r="D46" s="162" t="n"/>
@@ -5424,7 +5367,7 @@
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" s="160" thickBot="1">
-      <c r="A47" s="185" t="n"/>
+      <c r="A47" s="181" t="n"/>
       <c r="B47" s="162" t="n"/>
       <c r="C47" s="161" t="n"/>
       <c r="D47" s="162" t="n"/>
@@ -5475,18 +5418,18 @@
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="160" thickBot="1">
-      <c r="A48" s="223" t="inlineStr">
+      <c r="A48" s="227" t="inlineStr">
         <is>
           <t>Personal, Namn</t>
         </is>
       </c>
       <c r="B48" s="162" t="n"/>
-      <c r="C48" s="236" t="inlineStr">
+      <c r="C48" s="243" t="inlineStr">
         <is>
           <t>Kategori KM ersättning</t>
         </is>
       </c>
-      <c r="D48" s="184" t="n"/>
+      <c r="D48" s="180" t="n"/>
       <c r="E48" s="84" t="n"/>
       <c r="F48" s="99" t="n"/>
       <c r="G48" s="99" t="n"/>
@@ -5540,12 +5483,12 @@
         </is>
       </c>
       <c r="B49" s="162" t="n"/>
-      <c r="C49" s="206" t="inlineStr">
+      <c r="C49" s="201" t="inlineStr">
         <is>
           <t xml:space="preserve"> Arborist Servicebil</t>
         </is>
       </c>
-      <c r="D49" s="184" t="n"/>
+      <c r="D49" s="180" t="n"/>
       <c r="E49" s="84" t="n"/>
       <c r="F49" s="122" t="n"/>
       <c r="G49" s="122" t="n"/>
@@ -5554,15 +5497,9 @@
       <c r="J49" s="122" t="n"/>
       <c r="K49" s="86" t="n"/>
       <c r="L49" s="86" t="n"/>
-      <c r="M49" s="122" t="n">
-        <v>150</v>
-      </c>
-      <c r="N49" s="122" t="n">
-        <v>150</v>
-      </c>
-      <c r="O49" s="122" t="n">
-        <v>150</v>
-      </c>
+      <c r="M49" s="122" t="n"/>
+      <c r="N49" s="122" t="n"/>
+      <c r="O49" s="122" t="n"/>
       <c r="P49" s="122" t="n"/>
       <c r="Q49" s="122" t="n"/>
       <c r="R49" s="86" t="n"/>
@@ -5574,9 +5511,15 @@
       <c r="X49" s="86" t="n"/>
       <c r="Y49" s="86" t="n"/>
       <c r="Z49" s="86" t="n"/>
-      <c r="AA49" s="122" t="n"/>
-      <c r="AB49" s="122" t="n"/>
-      <c r="AC49" s="122" t="n"/>
+      <c r="AA49" s="122" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB49" s="122" t="n">
+        <v>150</v>
+      </c>
+      <c r="AC49" s="122" t="n">
+        <v>150</v>
+      </c>
       <c r="AD49" s="122" t="n"/>
       <c r="AE49" s="122" t="n"/>
       <c r="AF49" s="86" t="n"/>
@@ -5605,8 +5548,8 @@
         </is>
       </c>
       <c r="B50" s="162" t="n"/>
-      <c r="C50" s="211" t="n"/>
-      <c r="D50" s="184" t="n"/>
+      <c r="C50" s="213" t="n"/>
+      <c r="D50" s="180" t="n"/>
       <c r="E50" s="84" t="n"/>
       <c r="F50" s="124" t="n"/>
       <c r="G50" s="124" t="n"/>
@@ -5615,29 +5558,29 @@
       <c r="J50" s="124" t="n"/>
       <c r="K50" s="86" t="n"/>
       <c r="L50" s="86" t="n"/>
-      <c r="M50" s="124" t="n">
-        <v>140</v>
-      </c>
-      <c r="N50" s="124" t="n">
-        <v>140</v>
-      </c>
-      <c r="O50" s="124" t="n">
-        <v>140</v>
-      </c>
+      <c r="M50" s="124" t="n"/>
+      <c r="N50" s="124" t="n"/>
+      <c r="O50" s="124" t="n"/>
       <c r="P50" s="124" t="n"/>
       <c r="Q50" s="124" t="n"/>
       <c r="R50" s="86" t="n"/>
-      <c r="S50" s="86">
-        <f>'[1]Platschef, trädbesiktare'!K35</f>
-        <v/>
-      </c>
-      <c r="T50" s="86" t="n"/>
-      <c r="U50" s="86" t="n"/>
-      <c r="V50" s="86" t="n"/>
+      <c r="S50" s="86" t="n"/>
+      <c r="T50" s="86" t="n">
+        <v>140</v>
+      </c>
+      <c r="U50" s="86" t="n">
+        <v>140</v>
+      </c>
+      <c r="V50" s="86" t="n">
+        <v>140</v>
+      </c>
       <c r="W50" s="86" t="n"/>
       <c r="X50" s="86" t="n"/>
       <c r="Y50" s="86" t="n"/>
-      <c r="Z50" s="86" t="n"/>
+      <c r="Z50" s="86">
+        <f>'[1]Platschef, trädbesiktare'!K35</f>
+        <v/>
+      </c>
       <c r="AA50" s="124" t="n"/>
       <c r="AB50" s="124" t="n"/>
       <c r="AC50" s="124" t="n"/>
@@ -5669,21 +5612,21 @@
         </is>
       </c>
       <c r="B51" s="162" t="n"/>
-      <c r="C51" s="211" t="n"/>
-      <c r="D51" s="184" t="n"/>
+      <c r="C51" s="213" t="n"/>
+      <c r="D51" s="180" t="n"/>
       <c r="E51" s="84" t="n"/>
       <c r="F51" s="86" t="n"/>
       <c r="G51" s="86" t="n"/>
-      <c r="H51" s="86" t="n"/>
+      <c r="H51" s="86" t="n">
+        <v>189</v>
+      </c>
       <c r="I51" s="86" t="n"/>
       <c r="J51" s="86" t="n"/>
       <c r="K51" s="86" t="n"/>
       <c r="L51" s="86" t="n"/>
       <c r="M51" s="86" t="n"/>
       <c r="N51" s="86" t="n"/>
-      <c r="O51" s="86" t="n">
-        <v>189</v>
-      </c>
+      <c r="O51" s="86" t="n"/>
       <c r="P51" s="86" t="n"/>
       <c r="Q51" s="86" t="n"/>
       <c r="R51" s="86" t="n"/>
@@ -5726,28 +5669,28 @@
         </is>
       </c>
       <c r="B52" s="162" t="n"/>
-      <c r="C52" s="211" t="n"/>
-      <c r="D52" s="184" t="n"/>
+      <c r="C52" s="213" t="n"/>
+      <c r="D52" s="180" t="n"/>
       <c r="E52" s="84" t="n"/>
       <c r="F52" s="86" t="n"/>
       <c r="G52" s="86" t="n"/>
       <c r="H52" s="86" t="n"/>
-      <c r="I52" s="86" t="n"/>
+      <c r="I52" s="86" t="n">
+        <v>208</v>
+      </c>
       <c r="J52" s="86" t="n"/>
       <c r="K52" s="86" t="n"/>
-      <c r="L52" s="86" t="n"/>
+      <c r="L52" s="86">
+        <f>'[2]Platschef, trädbesiktare'!K35</f>
+        <v/>
+      </c>
       <c r="M52" s="86" t="n"/>
       <c r="N52" s="86" t="n"/>
       <c r="O52" s="86" t="n"/>
-      <c r="P52" s="86" t="n">
-        <v>208</v>
-      </c>
+      <c r="P52" s="86" t="n"/>
       <c r="Q52" s="86" t="n"/>
       <c r="R52" s="86" t="n"/>
-      <c r="S52" s="86">
-        <f>'[2]Platschef, trädbesiktare'!K35</f>
-        <v/>
-      </c>
+      <c r="S52" s="86" t="n"/>
       <c r="T52" s="86" t="n"/>
       <c r="U52" s="86" t="n"/>
       <c r="V52" s="86" t="n"/>
@@ -5786,28 +5729,28 @@
         </is>
       </c>
       <c r="B53" s="162" t="n"/>
-      <c r="C53" s="196" t="n"/>
+      <c r="C53" s="193" t="n"/>
       <c r="D53" s="162" t="n"/>
       <c r="E53" s="84" t="n"/>
-      <c r="F53" s="86" t="n"/>
+      <c r="F53" s="86" t="n">
+        <v>88</v>
+      </c>
       <c r="G53" s="86" t="n"/>
       <c r="H53" s="86" t="n"/>
       <c r="I53" s="86" t="n"/>
       <c r="J53" s="86" t="n"/>
       <c r="K53" s="86" t="n"/>
-      <c r="L53" s="86" t="n"/>
-      <c r="M53" s="86" t="n">
-        <v>88</v>
-      </c>
+      <c r="L53" s="86">
+        <f>'[3]Platschef, trädbesiktare'!K35</f>
+        <v/>
+      </c>
+      <c r="M53" s="86" t="n"/>
       <c r="N53" s="86" t="n"/>
       <c r="O53" s="86" t="n"/>
       <c r="P53" s="86" t="n"/>
       <c r="Q53" s="86" t="n"/>
       <c r="R53" s="86" t="n"/>
-      <c r="S53" s="86">
-        <f>'[3]Platschef, trädbesiktare'!K35</f>
-        <v/>
-      </c>
+      <c r="S53" s="86" t="n"/>
       <c r="T53" s="86" t="n"/>
       <c r="U53" s="86" t="n"/>
       <c r="V53" s="86" t="n"/>
@@ -5846,28 +5789,31 @@
         </is>
       </c>
       <c r="B54" s="162" t="n"/>
-      <c r="C54" s="196" t="n"/>
+      <c r="C54" s="193" t="n"/>
       <c r="D54" s="162" t="n"/>
       <c r="E54" s="84" t="n"/>
-      <c r="F54" s="86" t="n"/>
+      <c r="F54" s="86" t="n">
+        <v>26</v>
+      </c>
       <c r="G54" s="86" t="n"/>
-      <c r="H54" s="86" t="n"/>
+      <c r="H54" s="86" t="n">
+        <v>26</v>
+      </c>
       <c r="I54" s="86" t="n"/>
       <c r="J54" s="86" t="n"/>
       <c r="K54" s="86" t="n"/>
-      <c r="L54" s="86" t="n"/>
-      <c r="M54" s="86" t="n">
-        <v>26</v>
-      </c>
+      <c r="L54" s="86">
+        <f>'[4]Platschef, trädbesiktare'!K35</f>
+        <v/>
+      </c>
+      <c r="M54" s="86" t="n"/>
       <c r="N54" s="86" t="n"/>
-      <c r="O54" s="86" t="n">
-        <v>26</v>
-      </c>
+      <c r="O54" s="86" t="n"/>
       <c r="P54" s="86" t="n"/>
       <c r="Q54" s="86" t="n"/>
       <c r="R54" s="86" t="n"/>
       <c r="S54" s="86">
-        <f>'[4]Platschef, trädbesiktare'!K35</f>
+        <f>'[6]Platschef, trädbesiktare'!K35</f>
         <v/>
       </c>
       <c r="T54" s="86" t="n"/>
@@ -5876,10 +5822,7 @@
       <c r="W54" s="86" t="n"/>
       <c r="X54" s="86" t="n"/>
       <c r="Y54" s="86" t="n"/>
-      <c r="Z54" s="86">
-        <f>'[6]Platschef, trädbesiktare'!K35</f>
-        <v/>
-      </c>
+      <c r="Z54" s="86" t="n"/>
       <c r="AA54" s="86" t="n"/>
       <c r="AB54" s="86" t="n"/>
       <c r="AC54" s="86" t="n"/>
@@ -5911,7 +5854,7 @@
         </is>
       </c>
       <c r="B55" s="162" t="n"/>
-      <c r="C55" s="196" t="n"/>
+      <c r="C55" s="193" t="n"/>
       <c r="D55" s="162" t="n"/>
       <c r="E55" s="84" t="n"/>
       <c r="F55" s="86" t="n"/>
@@ -5921,31 +5864,31 @@
       <c r="J55" s="86" t="n"/>
       <c r="K55" s="86" t="n"/>
       <c r="L55" s="86" t="n"/>
-      <c r="M55" s="86" t="n"/>
-      <c r="N55" s="86" t="n"/>
-      <c r="O55" s="86" t="n"/>
-      <c r="P55" s="86" t="n"/>
+      <c r="M55" s="86" t="n">
+        <v>100</v>
+      </c>
+      <c r="N55" s="86" t="n">
+        <v>100</v>
+      </c>
+      <c r="O55" s="86" t="n">
+        <v>100</v>
+      </c>
+      <c r="P55" s="86" t="n">
+        <v>100</v>
+      </c>
       <c r="Q55" s="86" t="n"/>
       <c r="R55" s="86" t="n"/>
-      <c r="S55" s="86" t="n"/>
-      <c r="T55" s="86" t="n">
-        <v>100</v>
-      </c>
-      <c r="U55" s="86" t="n">
-        <v>100</v>
-      </c>
-      <c r="V55" s="86" t="n">
-        <v>100</v>
-      </c>
-      <c r="W55" s="86" t="n">
-        <v>100</v>
-      </c>
+      <c r="S55" s="86">
+        <f>'[5]Platschef, trädbesiktare'!K35</f>
+        <v/>
+      </c>
+      <c r="T55" s="86" t="n"/>
+      <c r="U55" s="86" t="n"/>
+      <c r="V55" s="86" t="n"/>
+      <c r="W55" s="86" t="n"/>
       <c r="X55" s="86" t="n"/>
       <c r="Y55" s="86" t="n"/>
-      <c r="Z55" s="86">
-        <f>'[5]Platschef, trädbesiktare'!K35</f>
-        <v/>
-      </c>
+      <c r="Z55" s="86" t="n"/>
       <c r="AA55" s="86" t="n"/>
       <c r="AB55" s="86" t="n"/>
       <c r="AC55" s="86" t="n"/>
@@ -5977,8 +5920,8 @@
         </is>
       </c>
       <c r="B56" s="162" t="n"/>
-      <c r="C56" s="231" t="n"/>
-      <c r="D56" s="210" t="n"/>
+      <c r="C56" s="238" t="n"/>
+      <c r="D56" s="209" t="n"/>
       <c r="E56" s="84" t="n"/>
       <c r="F56" s="125" t="n"/>
       <c r="G56" s="125" t="n"/>
@@ -5993,18 +5936,18 @@
       <c r="P56" s="125" t="n"/>
       <c r="Q56" s="125" t="n"/>
       <c r="R56" s="86" t="n"/>
-      <c r="S56" s="86" t="n"/>
+      <c r="S56" s="86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="T56" s="86" t="n"/>
       <c r="U56" s="86" t="n"/>
       <c r="V56" s="86" t="n"/>
       <c r="W56" s="86" t="n"/>
       <c r="X56" s="86" t="n"/>
       <c r="Y56" s="86" t="n"/>
-      <c r="Z56" s="86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="Z56" s="86" t="n"/>
       <c r="AA56" s="86" t="n"/>
       <c r="AB56" s="86" t="n"/>
       <c r="AC56" s="86" t="n"/>
@@ -6032,8 +5975,8 @@
     <row r="57">
       <c r="A57" s="163" t="n"/>
       <c r="B57" s="162" t="n"/>
-      <c r="C57" s="231" t="n"/>
-      <c r="D57" s="210" t="n"/>
+      <c r="C57" s="238" t="n"/>
+      <c r="D57" s="209" t="n"/>
       <c r="E57" s="84" t="n"/>
       <c r="F57" s="86" t="n"/>
       <c r="G57" s="86" t="n"/>
@@ -6083,8 +6026,8 @@
     <row r="58">
       <c r="A58" s="161" t="n"/>
       <c r="B58" s="162" t="n"/>
-      <c r="C58" s="231" t="n"/>
-      <c r="D58" s="210" t="n"/>
+      <c r="C58" s="238" t="n"/>
+      <c r="D58" s="209" t="n"/>
       <c r="E58" s="84" t="n"/>
       <c r="F58" s="86" t="n"/>
       <c r="G58" s="86" t="n"/>
@@ -6134,8 +6077,8 @@
     <row r="59">
       <c r="A59" s="163" t="n"/>
       <c r="B59" s="162" t="n"/>
-      <c r="C59" s="231" t="n"/>
-      <c r="D59" s="210" t="n"/>
+      <c r="C59" s="238" t="n"/>
+      <c r="D59" s="209" t="n"/>
       <c r="E59" s="84" t="n"/>
       <c r="F59" s="86" t="n"/>
       <c r="G59" s="86" t="n"/>
@@ -6185,7 +6128,7 @@
     <row r="60">
       <c r="A60" s="161" t="n"/>
       <c r="B60" s="162" t="n"/>
-      <c r="C60" s="196" t="n"/>
+      <c r="C60" s="193" t="n"/>
       <c r="D60" s="162" t="n"/>
       <c r="E60" s="84" t="n"/>
       <c r="F60" s="86" t="n"/>
@@ -6236,7 +6179,7 @@
     <row r="61">
       <c r="A61" s="161" t="n"/>
       <c r="B61" s="162" t="n"/>
-      <c r="C61" s="196" t="n"/>
+      <c r="C61" s="193" t="n"/>
       <c r="D61" s="162" t="n"/>
       <c r="E61" s="84" t="n"/>
       <c r="F61" s="125" t="n"/>
@@ -6285,9 +6228,9 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="176" t="n"/>
+      <c r="A62" s="174" t="n"/>
       <c r="B62" s="162" t="n"/>
-      <c r="C62" s="196" t="n"/>
+      <c r="C62" s="193" t="n"/>
       <c r="D62" s="162" t="n"/>
       <c r="E62" s="84" t="n"/>
       <c r="F62" s="125" t="n"/>
@@ -6336,9 +6279,9 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="176" t="n"/>
+      <c r="A63" s="174" t="n"/>
       <c r="B63" s="162" t="n"/>
-      <c r="C63" s="196" t="n"/>
+      <c r="C63" s="193" t="n"/>
       <c r="D63" s="162" t="n"/>
       <c r="E63" s="84" t="n"/>
       <c r="F63" s="125" t="n"/>
@@ -6389,7 +6332,7 @@
     <row r="64">
       <c r="A64" s="161" t="n"/>
       <c r="B64" s="162" t="n"/>
-      <c r="C64" s="196" t="n"/>
+      <c r="C64" s="193" t="n"/>
       <c r="D64" s="162" t="n"/>
       <c r="E64" s="84" t="n"/>
       <c r="F64" s="125" t="n"/>
@@ -6438,9 +6381,9 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="195" t="n"/>
+      <c r="A65" s="192" t="n"/>
       <c r="B65" s="162" t="n"/>
-      <c r="C65" s="196" t="n"/>
+      <c r="C65" s="193" t="n"/>
       <c r="D65" s="162" t="n"/>
       <c r="E65" s="84" t="n"/>
       <c r="F65" s="125" t="n"/>
@@ -6489,9 +6432,9 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="267" t="n"/>
+      <c r="A66" s="268" t="n"/>
       <c r="B66" s="162" t="n"/>
-      <c r="C66" s="196" t="n"/>
+      <c r="C66" s="193" t="n"/>
       <c r="D66" s="162" t="n"/>
       <c r="E66" s="84" t="n"/>
       <c r="F66" s="125" t="n"/>
@@ -6540,10 +6483,10 @@
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" s="160" thickBot="1">
-      <c r="A67" s="266" t="n"/>
-      <c r="B67" s="229" t="n"/>
-      <c r="C67" s="277" t="n"/>
-      <c r="D67" s="229" t="n"/>
+      <c r="A67" s="258" t="n"/>
+      <c r="B67" s="235" t="n"/>
+      <c r="C67" s="275" t="n"/>
+      <c r="D67" s="235" t="n"/>
       <c r="E67" s="127" t="n"/>
       <c r="F67" s="128" t="n"/>
       <c r="G67" s="128" t="n"/>
@@ -6591,13 +6534,13 @@
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" s="160" thickBot="1">
-      <c r="A68" s="223" t="inlineStr">
+      <c r="A68" s="227" t="inlineStr">
         <is>
           <t>Personal, Namn</t>
         </is>
       </c>
       <c r="B68" s="162" t="n"/>
-      <c r="C68" s="212" t="inlineStr">
+      <c r="C68" s="215" t="inlineStr">
         <is>
           <t>Markarbetare</t>
         </is>
@@ -6652,7 +6595,7 @@
     <row r="69">
       <c r="A69" s="161" t="n"/>
       <c r="B69" s="162" t="n"/>
-      <c r="C69" s="278" t="n"/>
+      <c r="C69" s="276" t="n"/>
       <c r="D69" s="162" t="n"/>
       <c r="E69" s="84" t="n"/>
       <c r="F69" s="87" t="n"/>
@@ -6713,9 +6656,9 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="213" t="n"/>
+      <c r="A70" s="216" t="n"/>
       <c r="B70" s="162" t="n"/>
-      <c r="C70" s="281" t="n"/>
+      <c r="C70" s="282" t="n"/>
       <c r="D70" s="162" t="n"/>
       <c r="E70" s="84" t="n"/>
       <c r="F70" s="87" t="n"/>
@@ -6764,7 +6707,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="215" t="n"/>
+      <c r="A71" s="218" t="n"/>
       <c r="B71" s="162" t="n"/>
       <c r="C71" s="161" t="n"/>
       <c r="D71" s="162" t="n"/>
@@ -6815,7 +6758,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="215" t="n"/>
+      <c r="A72" s="218" t="n"/>
       <c r="B72" s="162" t="n"/>
       <c r="C72" s="161" t="n"/>
       <c r="D72" s="162" t="n"/>
@@ -6866,7 +6809,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="215" t="n"/>
+      <c r="A73" s="218" t="n"/>
       <c r="B73" s="162" t="n"/>
       <c r="C73" s="161" t="n"/>
       <c r="D73" s="162" t="n"/>
@@ -6917,7 +6860,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="215" t="n"/>
+      <c r="A74" s="218" t="n"/>
       <c r="B74" s="162" t="n"/>
       <c r="C74" s="161" t="n"/>
       <c r="D74" s="162" t="n"/>
@@ -6968,7 +6911,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="215" t="n"/>
+      <c r="A75" s="218" t="n"/>
       <c r="B75" s="162" t="n"/>
       <c r="C75" s="161" t="n"/>
       <c r="D75" s="162" t="n"/>
@@ -7021,7 +6964,7 @@
     <row r="76" ht="15" customHeight="1" s="160" thickBot="1">
       <c r="A76" s="161" t="n"/>
       <c r="B76" s="162" t="n"/>
-      <c r="C76" s="217" t="n"/>
+      <c r="C76" s="220" t="n"/>
       <c r="D76" s="162" t="n"/>
       <c r="E76" s="84" t="n"/>
       <c r="F76" s="129" t="n"/>
@@ -7070,18 +7013,18 @@
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" s="160">
-      <c r="A77" s="223" t="inlineStr">
+      <c r="A77" s="227" t="inlineStr">
         <is>
           <t>Personal, Namn</t>
         </is>
       </c>
       <c r="B77" s="162" t="n"/>
-      <c r="C77" s="228" t="inlineStr">
+      <c r="C77" s="234" t="inlineStr">
         <is>
           <t>Kategori</t>
         </is>
       </c>
-      <c r="D77" s="229" t="n"/>
+      <c r="D77" s="235" t="n"/>
       <c r="E77" s="84" t="n"/>
       <c r="F77" s="131" t="n"/>
       <c r="G77" s="131" t="n"/>
@@ -7129,43 +7072,43 @@
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" s="160">
-      <c r="A78" s="193" t="inlineStr">
+      <c r="A78" s="190" t="inlineStr">
         <is>
           <t>Erik Rask</t>
         </is>
       </c>
-      <c r="B78" s="194" t="n"/>
-      <c r="C78" s="167" t="n"/>
-      <c r="D78" s="168" t="n"/>
+      <c r="B78" s="191" t="n"/>
+      <c r="C78" s="164" t="n"/>
+      <c r="D78" s="165" t="n"/>
       <c r="E78" s="136" t="n"/>
-      <c r="F78" s="87" t="n"/>
-      <c r="G78" s="87" t="n"/>
-      <c r="H78" s="87" t="n"/>
-      <c r="I78" s="87" t="n"/>
-      <c r="J78" s="87" t="n"/>
-      <c r="K78" s="87" t="n"/>
-      <c r="L78" s="87" t="n"/>
-      <c r="M78" s="87" t="n">
+      <c r="F78" s="87" t="n">
         <v>8</v>
       </c>
-      <c r="N78" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" s="87" t="n">
+      <c r="G78" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="87" t="n">
         <v>8</v>
       </c>
-      <c r="P78" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="R78" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="S78" s="87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" s="87" t="n"/>
+      <c r="N78" s="87" t="n"/>
+      <c r="O78" s="87" t="n"/>
+      <c r="P78" s="87" t="n"/>
+      <c r="Q78" s="87" t="n"/>
+      <c r="R78" s="87" t="n"/>
+      <c r="S78" s="87" t="n"/>
       <c r="T78" s="87" t="n"/>
       <c r="U78" s="87" t="n"/>
       <c r="V78" s="87" t="n"/>
@@ -7198,10 +7141,10 @@
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" s="160">
-      <c r="A79" s="193" t="n"/>
-      <c r="B79" s="194" t="n"/>
-      <c r="C79" s="167" t="n"/>
-      <c r="D79" s="168" t="n"/>
+      <c r="A79" s="190" t="n"/>
+      <c r="B79" s="191" t="n"/>
+      <c r="C79" s="164" t="n"/>
+      <c r="D79" s="165" t="n"/>
       <c r="E79" s="136" t="n"/>
       <c r="F79" s="87" t="n"/>
       <c r="G79" s="87" t="n"/>
@@ -7215,9 +7158,7 @@
       <c r="O79" s="87" t="n"/>
       <c r="P79" s="87" t="n"/>
       <c r="Q79" s="87" t="n"/>
-      <c r="R79" s="87" t="n">
-        <v>0</v>
-      </c>
+      <c r="R79" s="87" t="n"/>
       <c r="S79" s="87" t="n"/>
       <c r="T79" s="87" t="n"/>
       <c r="U79" s="87" t="n"/>
@@ -7253,8 +7194,8 @@
     <row r="80">
       <c r="A80" s="161" t="n"/>
       <c r="B80" s="162" t="n"/>
-      <c r="C80" s="197" t="n"/>
-      <c r="D80" s="198" t="n"/>
+      <c r="C80" s="195" t="n"/>
+      <c r="D80" s="196" t="n"/>
       <c r="E80" s="84" t="n"/>
       <c r="F80" s="87" t="n"/>
       <c r="G80" s="87" t="n"/>
@@ -7353,13 +7294,13 @@
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" s="160" thickBot="1">
-      <c r="A82" s="223" t="inlineStr">
+      <c r="A82" s="227" t="inlineStr">
         <is>
           <t>Personal, Namn</t>
         </is>
       </c>
       <c r="B82" s="162" t="n"/>
-      <c r="C82" s="227" t="inlineStr">
+      <c r="C82" s="233" t="inlineStr">
         <is>
           <t>Kategori</t>
         </is>
@@ -7412,10 +7353,10 @@
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" s="160">
-      <c r="A83" s="192" t="n"/>
+      <c r="A83" s="186" t="n"/>
       <c r="B83" s="162" t="n"/>
-      <c r="C83" s="256" t="n"/>
-      <c r="D83" s="184" t="n"/>
+      <c r="C83" s="257" t="n"/>
+      <c r="D83" s="180" t="n"/>
       <c r="E83" s="138" t="n"/>
       <c r="F83" s="139" t="n"/>
       <c r="G83" s="140" t="n"/>
@@ -7463,10 +7404,10 @@
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" s="160">
-      <c r="A84" s="192" t="n"/>
+      <c r="A84" s="186" t="n"/>
       <c r="B84" s="162" t="n"/>
-      <c r="C84" s="256" t="n"/>
-      <c r="D84" s="184" t="n"/>
+      <c r="C84" s="257" t="n"/>
+      <c r="D84" s="180" t="n"/>
       <c r="E84" s="138" t="n"/>
       <c r="F84" s="142" t="n"/>
       <c r="G84" s="143" t="n"/>
@@ -7514,9 +7455,9 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="261" t="n"/>
+      <c r="A85" s="264" t="n"/>
       <c r="B85" s="162" t="n"/>
-      <c r="C85" s="208" t="inlineStr">
+      <c r="C85" s="207" t="inlineStr">
         <is>
           <t>Järnhäst,Järnoxe</t>
         </is>
@@ -7620,13 +7561,13 @@
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" s="160">
-      <c r="A87" s="223" t="inlineStr">
+      <c r="A87" s="227" t="inlineStr">
         <is>
           <t>Personal, Namn</t>
         </is>
       </c>
       <c r="B87" s="162" t="n"/>
-      <c r="C87" s="227" t="inlineStr">
+      <c r="C87" s="233" t="inlineStr">
         <is>
           <t>Kategori</t>
         </is>
@@ -7679,9 +7620,9 @@
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" s="160">
-      <c r="A88" s="192" t="n"/>
+      <c r="A88" s="186" t="n"/>
       <c r="B88" s="162" t="n"/>
-      <c r="C88" s="208" t="inlineStr">
+      <c r="C88" s="207" t="inlineStr">
         <is>
           <t>Flismaskin</t>
         </is>
@@ -7887,18 +7828,18 @@
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" s="160" thickBot="1">
-      <c r="A92" s="223" t="inlineStr">
+      <c r="A92" s="227" t="inlineStr">
         <is>
           <t>Personal, Namn</t>
         </is>
       </c>
       <c r="B92" s="162" t="n"/>
-      <c r="C92" s="232" t="inlineStr">
+      <c r="C92" s="239" t="inlineStr">
         <is>
           <t>Skotare liten &gt; 11 ton Alstor, Ditchwitch</t>
         </is>
       </c>
-      <c r="D92" s="233" t="n"/>
+      <c r="D92" s="240" t="n"/>
       <c r="E92" s="84" t="n"/>
       <c r="F92" s="147" t="n"/>
       <c r="G92" s="147" t="n"/>
@@ -7952,8 +7893,8 @@
         </is>
       </c>
       <c r="B93" s="162" t="n"/>
-      <c r="C93" s="234" t="n"/>
-      <c r="D93" s="235" t="n"/>
+      <c r="C93" s="241" t="n"/>
+      <c r="D93" s="242" t="n"/>
       <c r="E93" s="84" t="n"/>
       <c r="F93" s="87" t="n"/>
       <c r="G93" s="87" t="n"/>
@@ -7962,34 +7903,34 @@
       <c r="J93" s="87" t="n"/>
       <c r="K93" s="87" t="n"/>
       <c r="L93" s="87" t="n"/>
-      <c r="M93" s="87" t="n"/>
-      <c r="N93" s="87" t="n"/>
-      <c r="O93" s="87" t="n"/>
-      <c r="P93" s="87" t="n"/>
-      <c r="Q93" s="87" t="n"/>
-      <c r="R93" s="87" t="n"/>
-      <c r="S93" s="87" t="n"/>
-      <c r="T93" s="87" t="n">
+      <c r="M93" s="87" t="n">
         <v>8</v>
       </c>
-      <c r="U93" s="87" t="n">
+      <c r="N93" s="87" t="n">
         <v>8</v>
       </c>
-      <c r="V93" s="87" t="n">
+      <c r="O93" s="87" t="n">
         <v>8</v>
       </c>
-      <c r="W93" s="87" t="n">
+      <c r="P93" s="87" t="n">
         <v>4</v>
       </c>
-      <c r="X93" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y93" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z93" s="87" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q93" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="S93" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="T93" s="87" t="n"/>
+      <c r="U93" s="87" t="n"/>
+      <c r="V93" s="87" t="n"/>
+      <c r="W93" s="87" t="n"/>
+      <c r="X93" s="87" t="n"/>
+      <c r="Y93" s="87" t="n"/>
+      <c r="Z93" s="87" t="n"/>
       <c r="AA93" s="87" t="n"/>
       <c r="AB93" s="87" t="n"/>
       <c r="AC93" s="87" t="n"/>
@@ -8015,10 +7956,10 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="213" t="n"/>
+      <c r="A94" s="216" t="n"/>
       <c r="B94" s="162" t="n"/>
-      <c r="C94" s="183" t="n"/>
-      <c r="D94" s="184" t="n"/>
+      <c r="C94" s="179" t="n"/>
+      <c r="D94" s="180" t="n"/>
       <c r="E94" s="84" t="n"/>
       <c r="F94" s="87" t="n"/>
       <c r="G94" s="87" t="n"/>
@@ -8068,8 +8009,8 @@
     <row r="95">
       <c r="A95" s="161" t="n"/>
       <c r="B95" s="162" t="n"/>
-      <c r="C95" s="183" t="n"/>
-      <c r="D95" s="184" t="n"/>
+      <c r="C95" s="179" t="n"/>
+      <c r="D95" s="180" t="n"/>
       <c r="E95" s="84" t="n"/>
       <c r="F95" s="87" t="n"/>
       <c r="G95" s="87" t="n"/>
@@ -8119,8 +8060,8 @@
     <row r="96">
       <c r="A96" s="161" t="n"/>
       <c r="B96" s="162" t="n"/>
-      <c r="C96" s="183" t="n"/>
-      <c r="D96" s="184" t="n"/>
+      <c r="C96" s="179" t="n"/>
+      <c r="D96" s="180" t="n"/>
       <c r="E96" s="84" t="n"/>
       <c r="F96" s="87" t="n"/>
       <c r="G96" s="87" t="n"/>
@@ -8170,8 +8111,8 @@
     <row r="97">
       <c r="A97" s="161" t="n"/>
       <c r="B97" s="162" t="n"/>
-      <c r="C97" s="183" t="n"/>
-      <c r="D97" s="184" t="n"/>
+      <c r="C97" s="179" t="n"/>
+      <c r="D97" s="180" t="n"/>
       <c r="E97" s="84" t="n"/>
       <c r="F97" s="87" t="n"/>
       <c r="G97" s="87" t="n"/>
@@ -8221,8 +8162,8 @@
     <row r="98">
       <c r="A98" s="161" t="n"/>
       <c r="B98" s="162" t="n"/>
-      <c r="C98" s="183" t="n"/>
-      <c r="D98" s="184" t="n"/>
+      <c r="C98" s="179" t="n"/>
+      <c r="D98" s="180" t="n"/>
       <c r="E98" s="84" t="n"/>
       <c r="F98" s="87" t="n"/>
       <c r="G98" s="87" t="n"/>
@@ -8270,10 +8211,10 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="213" t="n"/>
+      <c r="A99" s="216" t="n"/>
       <c r="B99" s="162" t="n"/>
-      <c r="C99" s="183" t="n"/>
-      <c r="D99" s="184" t="n"/>
+      <c r="C99" s="179" t="n"/>
+      <c r="D99" s="180" t="n"/>
       <c r="E99" s="84" t="n"/>
       <c r="F99" s="87" t="n"/>
       <c r="G99" s="87" t="n"/>
@@ -8321,9 +8262,9 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="225" t="n"/>
-      <c r="B100" s="226" t="n"/>
-      <c r="C100" s="192" t="n"/>
+      <c r="A100" s="231" t="n"/>
+      <c r="B100" s="232" t="n"/>
+      <c r="C100" s="186" t="n"/>
       <c r="D100" s="162" t="n"/>
       <c r="E100" s="84" t="n"/>
       <c r="F100" s="87" t="n"/>
@@ -8372,8 +8313,8 @@
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" s="160" thickBot="1">
-      <c r="A101" s="216" t="n"/>
-      <c r="B101" s="198" t="n"/>
+      <c r="A101" s="219" t="n"/>
+      <c r="B101" s="196" t="n"/>
       <c r="C101" s="161" t="n"/>
       <c r="D101" s="162" t="n"/>
       <c r="E101" s="84" t="n"/>
@@ -8423,13 +8364,13 @@
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" s="160" thickBot="1">
-      <c r="A102" s="223" t="inlineStr">
+      <c r="A102" s="227" t="inlineStr">
         <is>
           <t>Personal, Namn</t>
         </is>
       </c>
       <c r="B102" s="162" t="n"/>
-      <c r="C102" s="227" t="inlineStr">
+      <c r="C102" s="233" t="inlineStr">
         <is>
           <t>Kategori</t>
         </is>
@@ -8482,47 +8423,47 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="182" t="inlineStr">
+      <c r="A103" s="178" t="inlineStr">
         <is>
           <t>Kungsbacka Skog</t>
         </is>
       </c>
       <c r="B103" s="162" t="n"/>
-      <c r="C103" s="171" t="inlineStr">
+      <c r="C103" s="168" t="inlineStr">
         <is>
           <t>Lastbil</t>
         </is>
       </c>
       <c r="D103" s="162" t="n"/>
       <c r="E103" s="84" t="n"/>
-      <c r="F103" s="87" t="n"/>
-      <c r="G103" s="87" t="n"/>
-      <c r="H103" s="87" t="n"/>
-      <c r="I103" s="87" t="n"/>
-      <c r="J103" s="87" t="n"/>
-      <c r="K103" s="87" t="n"/>
-      <c r="L103" s="87" t="n"/>
-      <c r="M103" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103" s="87" t="n">
+      <c r="F103" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" s="87" t="n">
         <v>8</v>
       </c>
-      <c r="O103" s="87" t="n">
+      <c r="H103" s="87" t="n">
         <v>4</v>
       </c>
-      <c r="P103" s="87" t="n">
+      <c r="I103" s="87" t="n">
         <v>8</v>
       </c>
-      <c r="Q103" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="R103" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="S103" s="87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" s="87" t="n"/>
+      <c r="N103" s="87" t="n"/>
+      <c r="O103" s="87" t="n"/>
+      <c r="P103" s="87" t="n"/>
+      <c r="Q103" s="87" t="n"/>
+      <c r="R103" s="87" t="n"/>
+      <c r="S103" s="87" t="n"/>
       <c r="T103" s="87" t="n"/>
       <c r="U103" s="87" t="n"/>
       <c r="V103" s="87" t="n"/>
@@ -8555,10 +8496,10 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="182" t="n"/>
+      <c r="A104" s="178" t="n"/>
       <c r="B104" s="162" t="n"/>
-      <c r="C104" s="190" t="n"/>
-      <c r="D104" s="184" t="n"/>
+      <c r="C104" s="183" t="n"/>
+      <c r="D104" s="180" t="n"/>
       <c r="E104" s="84" t="n"/>
       <c r="F104" s="87" t="n"/>
       <c r="G104" s="87" t="n"/>
@@ -8606,9 +8547,9 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="182" t="n"/>
+      <c r="A105" s="178" t="n"/>
       <c r="B105" s="162" t="n"/>
-      <c r="C105" s="261" t="n"/>
+      <c r="C105" s="264" t="n"/>
       <c r="D105" s="162" t="n"/>
       <c r="E105" s="84" t="n"/>
       <c r="F105" s="88" t="n"/>
@@ -8661,7 +8602,7 @@
     <row r="106">
       <c r="A106" s="163" t="n"/>
       <c r="B106" s="162" t="n"/>
-      <c r="C106" s="261" t="n"/>
+      <c r="C106" s="264" t="n"/>
       <c r="D106" s="162" t="n"/>
       <c r="E106" s="84" t="n"/>
       <c r="F106" s="88" t="n"/>
@@ -8763,13 +8704,13 @@
       </c>
     </row>
     <row r="108" ht="15" customHeight="1" s="160" thickBot="1">
-      <c r="A108" s="223" t="inlineStr">
+      <c r="A108" s="227" t="inlineStr">
         <is>
           <t>Personal, Namn</t>
         </is>
       </c>
       <c r="B108" s="162" t="n"/>
-      <c r="C108" s="227" t="inlineStr">
+      <c r="C108" s="233" t="inlineStr">
         <is>
           <t>Kategori</t>
         </is>
@@ -8822,9 +8763,9 @@
       </c>
     </row>
     <row r="109" ht="15" customHeight="1" s="160" thickBot="1">
-      <c r="A109" s="239" t="n"/>
+      <c r="A109" s="245" t="n"/>
       <c r="B109" s="162" t="n"/>
-      <c r="C109" s="171" t="inlineStr">
+      <c r="C109" s="168" t="inlineStr">
         <is>
           <t>Skotare</t>
         </is>
@@ -8873,10 +8814,10 @@
       <c r="AS109" s="124" t="n"/>
     </row>
     <row r="110">
-      <c r="A110" s="239" t="n"/>
+      <c r="A110" s="245" t="n"/>
       <c r="B110" s="162" t="n"/>
-      <c r="C110" s="190" t="n"/>
-      <c r="D110" s="184" t="n"/>
+      <c r="C110" s="183" t="n"/>
+      <c r="D110" s="180" t="n"/>
       <c r="E110" s="84" t="n"/>
       <c r="F110" s="87" t="n"/>
       <c r="G110" s="87" t="n"/>
@@ -8924,10 +8865,10 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="239" t="n"/>
+      <c r="A111" s="245" t="n"/>
       <c r="B111" s="162" t="n"/>
-      <c r="C111" s="190" t="n"/>
-      <c r="D111" s="184" t="n"/>
+      <c r="C111" s="183" t="n"/>
+      <c r="D111" s="180" t="n"/>
       <c r="E111" s="84" t="n"/>
       <c r="F111" s="87" t="n"/>
       <c r="G111" s="87" t="n"/>
@@ -8972,9 +8913,9 @@
       <c r="AT111" s="76" t="n"/>
     </row>
     <row r="112" ht="15" customHeight="1" s="160" thickBot="1">
-      <c r="A112" s="239" t="n"/>
+      <c r="A112" s="245" t="n"/>
       <c r="B112" s="162" t="n"/>
-      <c r="C112" s="261" t="n"/>
+      <c r="C112" s="264" t="n"/>
       <c r="D112" s="162" t="n"/>
       <c r="E112" s="84" t="n"/>
       <c r="F112" s="88" t="n"/>
@@ -9025,7 +8966,7 @@
     <row r="113">
       <c r="A113" s="163" t="n"/>
       <c r="B113" s="162" t="n"/>
-      <c r="C113" s="171" t="inlineStr">
+      <c r="C113" s="168" t="inlineStr">
         <is>
           <t>SOS-Ledare</t>
         </is>
@@ -9092,7 +9033,7 @@
         </is>
       </c>
       <c r="B114" s="81" t="n"/>
-      <c r="C114" s="261" t="n"/>
+      <c r="C114" s="264" t="n"/>
       <c r="D114" s="162" t="n"/>
       <c r="E114" s="84" t="n"/>
       <c r="F114" s="88" t="n"/>
@@ -9102,34 +9043,34 @@
       <c r="J114" s="87" t="n"/>
       <c r="K114" s="87" t="n"/>
       <c r="L114" s="124" t="n"/>
-      <c r="M114" s="88" t="n">
+      <c r="M114" s="88" t="n"/>
+      <c r="N114" s="88" t="n"/>
+      <c r="O114" s="88" t="n"/>
+      <c r="P114" s="88" t="n"/>
+      <c r="Q114" s="87" t="n"/>
+      <c r="R114" s="124" t="n"/>
+      <c r="S114" s="124" t="n"/>
+      <c r="T114" s="124" t="n">
         <v>0.5</v>
       </c>
-      <c r="N114" s="88" t="n">
+      <c r="U114" s="124" t="n">
         <v>0.5</v>
       </c>
-      <c r="O114" s="88" t="n">
+      <c r="V114" s="124" t="n">
         <v>0.5</v>
       </c>
-      <c r="P114" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q114" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="R114" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="S114" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="T114" s="124" t="n"/>
-      <c r="U114" s="124" t="n"/>
-      <c r="V114" s="124" t="n"/>
-      <c r="W114" s="124" t="n"/>
-      <c r="X114" s="124" t="n"/>
-      <c r="Y114" s="124" t="n"/>
-      <c r="Z114" s="124" t="n"/>
+      <c r="W114" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="X114" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y114" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z114" s="124" t="n">
+        <v>0</v>
+      </c>
       <c r="AA114" s="124" t="n"/>
       <c r="AB114" s="124" t="n"/>
       <c r="AC114" s="124" t="n"/>
@@ -9155,43 +9096,43 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="185" t="inlineStr">
+      <c r="A115" s="181" t="inlineStr">
         <is>
           <t>Kim D</t>
         </is>
       </c>
       <c r="B115" s="162" t="n"/>
-      <c r="C115" s="205" t="n"/>
-      <c r="D115" s="184" t="n"/>
+      <c r="C115" s="194" t="n"/>
+      <c r="D115" s="180" t="n"/>
       <c r="E115" s="84" t="n"/>
-      <c r="F115" s="88" t="n"/>
-      <c r="G115" s="88" t="n"/>
-      <c r="H115" s="88" t="n"/>
-      <c r="I115" s="88" t="n"/>
-      <c r="J115" s="87" t="n"/>
-      <c r="K115" s="87" t="n"/>
-      <c r="L115" s="124" t="n"/>
-      <c r="M115" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="N115" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O115" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P115" s="88" t="n">
+      <c r="F115" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" s="88" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q115" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="R115" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="S115" s="124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" s="88" t="n"/>
+      <c r="N115" s="88" t="n"/>
+      <c r="O115" s="88" t="n"/>
+      <c r="P115" s="88" t="n"/>
+      <c r="Q115" s="87" t="n"/>
+      <c r="R115" s="124" t="n"/>
+      <c r="S115" s="124" t="n"/>
       <c r="T115" s="124" t="n"/>
       <c r="U115" s="124" t="n"/>
       <c r="V115" s="124" t="n"/>
@@ -9224,10 +9165,10 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="185" t="n"/>
+      <c r="A116" s="181" t="n"/>
       <c r="B116" s="162" t="n"/>
-      <c r="C116" s="205" t="n"/>
-      <c r="D116" s="184" t="n"/>
+      <c r="C116" s="194" t="n"/>
+      <c r="D116" s="180" t="n"/>
       <c r="E116" s="84" t="n"/>
       <c r="F116" s="88" t="n"/>
       <c r="G116" s="88" t="n"/>
@@ -9275,10 +9216,10 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="185" t="n"/>
+      <c r="A117" s="181" t="n"/>
       <c r="B117" s="162" t="n"/>
-      <c r="C117" s="205" t="n"/>
-      <c r="D117" s="184" t="n"/>
+      <c r="C117" s="194" t="n"/>
+      <c r="D117" s="180" t="n"/>
       <c r="E117" s="84" t="n"/>
       <c r="F117" s="88" t="n"/>
       <c r="G117" s="88" t="n"/>
@@ -9326,10 +9267,10 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="185" t="n"/>
+      <c r="A118" s="181" t="n"/>
       <c r="B118" s="162" t="n"/>
-      <c r="C118" s="205" t="n"/>
-      <c r="D118" s="184" t="n"/>
+      <c r="C118" s="194" t="n"/>
+      <c r="D118" s="180" t="n"/>
       <c r="E118" s="84" t="n"/>
       <c r="F118" s="88" t="n"/>
       <c r="G118" s="88" t="n"/>
@@ -9377,10 +9318,10 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="185" t="n"/>
+      <c r="A119" s="181" t="n"/>
       <c r="B119" s="162" t="n"/>
-      <c r="C119" s="205" t="n"/>
-      <c r="D119" s="184" t="n"/>
+      <c r="C119" s="194" t="n"/>
+      <c r="D119" s="180" t="n"/>
       <c r="E119" s="84" t="n"/>
       <c r="F119" s="88" t="n"/>
       <c r="G119" s="88" t="n"/>
@@ -9428,9 +9369,9 @@
       </c>
     </row>
     <row r="120" ht="15" customHeight="1" s="160" thickBot="1">
-      <c r="A120" s="185" t="n"/>
+      <c r="A120" s="181" t="n"/>
       <c r="B120" s="162" t="n"/>
-      <c r="C120" s="185" t="n"/>
+      <c r="C120" s="181" t="n"/>
       <c r="D120" s="162" t="n"/>
       <c r="E120" s="154" t="n"/>
       <c r="F120" s="88" t="n"/>
@@ -9479,9 +9420,9 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="185" t="n"/>
+      <c r="A121" s="181" t="n"/>
       <c r="B121" s="162" t="n"/>
-      <c r="C121" s="171" t="inlineStr">
+      <c r="C121" s="168" t="inlineStr">
         <is>
           <t>Övrigt</t>
         </is>
@@ -9534,9 +9475,9 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="185" t="n"/>
+      <c r="A122" s="181" t="n"/>
       <c r="B122" s="162" t="n"/>
-      <c r="C122" s="185" t="n"/>
+      <c r="C122" s="181" t="n"/>
       <c r="D122" s="162" t="n"/>
       <c r="E122" s="154" t="n"/>
       <c r="F122" s="88" t="n"/>
@@ -9585,9 +9526,9 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="185" t="n"/>
+      <c r="A123" s="181" t="n"/>
       <c r="B123" s="162" t="n"/>
-      <c r="C123" s="185" t="n"/>
+      <c r="C123" s="181" t="n"/>
       <c r="D123" s="162" t="n"/>
       <c r="E123" s="154" t="n"/>
       <c r="F123" s="88" t="n"/>
@@ -9636,9 +9577,9 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="185" t="n"/>
+      <c r="A124" s="181" t="n"/>
       <c r="B124" s="162" t="n"/>
-      <c r="C124" s="185" t="n"/>
+      <c r="C124" s="181" t="n"/>
       <c r="D124" s="162" t="n"/>
       <c r="E124" s="154" t="n"/>
       <c r="F124" s="88" t="n"/>
@@ -9687,9 +9628,9 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="185" t="n"/>
+      <c r="A125" s="181" t="n"/>
       <c r="B125" s="162" t="n"/>
-      <c r="C125" s="185" t="n"/>
+      <c r="C125" s="181" t="n"/>
       <c r="D125" s="162" t="n"/>
       <c r="E125" s="154" t="n"/>
       <c r="F125" s="88" t="n"/>
@@ -9738,9 +9679,9 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="185" t="n"/>
+      <c r="A126" s="181" t="n"/>
       <c r="B126" s="162" t="n"/>
-      <c r="C126" s="185" t="n"/>
+      <c r="C126" s="181" t="n"/>
       <c r="D126" s="162" t="n"/>
       <c r="E126" s="154" t="n"/>
       <c r="F126" s="88" t="n"/>
@@ -9789,7 +9730,7 @@
       </c>
     </row>
     <row r="127" ht="15" customHeight="1" s="160" thickBot="1">
-      <c r="A127" s="185" t="n"/>
+      <c r="A127" s="181" t="n"/>
       <c r="B127" s="162" t="n"/>
       <c r="E127" s="154" t="n"/>
       <c r="F127" s="88" t="n"/>
@@ -9838,9 +9779,9 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="185" t="n"/>
+      <c r="A128" s="181" t="n"/>
       <c r="B128" s="162" t="n"/>
-      <c r="C128" s="171" t="inlineStr">
+      <c r="C128" s="168" t="inlineStr">
         <is>
           <t>Orapporterad tid</t>
         </is>
@@ -9866,9 +9807,7 @@
       <c r="P128" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="Q128" s="103" t="n">
-        <v>8</v>
-      </c>
+      <c r="Q128" s="103" t="n"/>
       <c r="R128" s="104" t="n">
         <v>0</v>
       </c>
@@ -9907,14 +9846,14 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="185" t="inlineStr">
+      <c r="A129" s="181" t="inlineStr">
         <is>
           <t>David Allen</t>
         </is>
       </c>
       <c r="B129" s="162" t="n"/>
-      <c r="C129" s="200" t="n"/>
-      <c r="D129" s="184" t="n"/>
+      <c r="C129" s="198" t="n"/>
+      <c r="D129" s="180" t="n"/>
       <c r="E129" s="154" t="n"/>
       <c r="F129" s="88" t="n"/>
       <c r="G129" s="88" t="n"/>
@@ -9923,34 +9862,34 @@
       <c r="J129" s="87" t="n"/>
       <c r="K129" s="87" t="n"/>
       <c r="L129" s="124" t="n"/>
-      <c r="M129" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="N129" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O129" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P129" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q129" s="87" t="n">
+      <c r="M129" s="88" t="n"/>
+      <c r="N129" s="88" t="n"/>
+      <c r="O129" s="88" t="n"/>
+      <c r="P129" s="88" t="n"/>
+      <c r="Q129" s="87" t="n"/>
+      <c r="R129" s="124" t="n"/>
+      <c r="S129" s="124" t="n"/>
+      <c r="T129" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="U129" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="V129" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="W129" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="X129" s="124" t="n">
         <v>8</v>
       </c>
-      <c r="R129" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="S129" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="T129" s="124" t="n"/>
-      <c r="U129" s="124" t="n"/>
-      <c r="V129" s="124" t="n"/>
-      <c r="W129" s="124" t="n"/>
-      <c r="X129" s="124" t="n"/>
-      <c r="Y129" s="124" t="n"/>
-      <c r="Z129" s="124" t="n"/>
+      <c r="Y129" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="124" t="n">
+        <v>0</v>
+      </c>
       <c r="AA129" s="124" t="n"/>
       <c r="AB129" s="124" t="n"/>
       <c r="AC129" s="124" t="n"/>
@@ -9976,43 +9915,43 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="185" t="inlineStr">
+      <c r="A130" s="181" t="inlineStr">
         <is>
           <t>Kim D'Arcy</t>
         </is>
       </c>
       <c r="B130" s="162" t="n"/>
-      <c r="C130" s="205" t="n"/>
-      <c r="D130" s="184" t="n"/>
+      <c r="C130" s="194" t="n"/>
+      <c r="D130" s="180" t="n"/>
       <c r="E130" s="84" t="n"/>
-      <c r="F130" s="88" t="n"/>
-      <c r="G130" s="88" t="n"/>
-      <c r="H130" s="88" t="n"/>
-      <c r="I130" s="88" t="n"/>
-      <c r="J130" s="87" t="n"/>
-      <c r="K130" s="87" t="n"/>
-      <c r="L130" s="124" t="n"/>
-      <c r="M130" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="N130" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O130" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P130" s="88" t="n">
+      <c r="F130" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" s="88" t="n">
         <v>9</v>
       </c>
-      <c r="Q130" s="87" t="n">
+      <c r="J130" s="87" t="n">
         <v>9</v>
       </c>
-      <c r="R130" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="S130" s="124" t="n">
-        <v>0</v>
-      </c>
+      <c r="K130" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" s="88" t="n"/>
+      <c r="N130" s="88" t="n"/>
+      <c r="O130" s="88" t="n"/>
+      <c r="P130" s="88" t="n"/>
+      <c r="Q130" s="87" t="n"/>
+      <c r="R130" s="124" t="n"/>
+      <c r="S130" s="124" t="n"/>
       <c r="T130" s="124" t="n"/>
       <c r="U130" s="124" t="n"/>
       <c r="V130" s="124" t="n"/>
@@ -10045,14 +9984,14 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="185" t="inlineStr">
+      <c r="A131" s="181" t="inlineStr">
         <is>
           <t>Felix Myrheim</t>
         </is>
       </c>
       <c r="B131" s="162" t="n"/>
-      <c r="C131" s="205" t="n"/>
-      <c r="D131" s="184" t="n"/>
+      <c r="C131" s="194" t="n"/>
+      <c r="D131" s="180" t="n"/>
       <c r="E131" s="84" t="n"/>
       <c r="F131" s="88" t="n"/>
       <c r="G131" s="88" t="n"/>
@@ -10061,34 +10000,34 @@
       <c r="J131" s="87" t="n"/>
       <c r="K131" s="87" t="n"/>
       <c r="L131" s="124" t="n"/>
-      <c r="M131" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="N131" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O131" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P131" s="88" t="n">
+      <c r="M131" s="88" t="n"/>
+      <c r="N131" s="88" t="n"/>
+      <c r="O131" s="88" t="n"/>
+      <c r="P131" s="88" t="n"/>
+      <c r="Q131" s="87" t="n"/>
+      <c r="R131" s="124" t="n"/>
+      <c r="S131" s="124" t="n"/>
+      <c r="T131" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="U131" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="V131" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="W131" s="124" t="n">
         <v>9</v>
       </c>
-      <c r="Q131" s="87" t="n">
+      <c r="X131" s="124" t="n">
         <v>9</v>
       </c>
-      <c r="R131" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="S131" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="T131" s="124" t="n"/>
-      <c r="U131" s="124" t="n"/>
-      <c r="V131" s="124" t="n"/>
-      <c r="W131" s="124" t="n"/>
-      <c r="X131" s="124" t="n"/>
-      <c r="Y131" s="124" t="n"/>
-      <c r="Z131" s="124" t="n"/>
+      <c r="Y131" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z131" s="124" t="n">
+        <v>0</v>
+      </c>
       <c r="AA131" s="124" t="n"/>
       <c r="AB131" s="124" t="n"/>
       <c r="AC131" s="124" t="n"/>
@@ -10114,32 +10053,46 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="185" t="inlineStr">
+      <c r="A132" s="181" t="inlineStr">
         <is>
           <t>Erik Rask</t>
         </is>
       </c>
       <c r="B132" s="162" t="n"/>
       <c r="E132" s="84" t="n"/>
-      <c r="F132" s="88" t="n"/>
-      <c r="G132" s="88" t="n"/>
-      <c r="H132" s="88" t="n"/>
-      <c r="I132" s="88" t="n"/>
-      <c r="J132" s="87" t="n"/>
-      <c r="K132" s="87" t="n"/>
-      <c r="L132" s="124" t="n"/>
+      <c r="F132" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" s="88" t="n">
+        <v>10</v>
+      </c>
+      <c r="H132" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" s="124" t="n">
+        <v>0</v>
+      </c>
       <c r="M132" s="88" t="n">
         <v>0</v>
       </c>
       <c r="N132" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" s="88" t="n">
         <v>10</v>
       </c>
-      <c r="O132" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P132" s="88" t="n">
-        <v>0</v>
-      </c>
       <c r="Q132" s="87" t="n">
         <v>0</v>
       </c>
@@ -10149,27 +10102,13 @@
       <c r="S132" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="T132" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="U132" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="V132" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="W132" s="124" t="n">
-        <v>10</v>
-      </c>
-      <c r="X132" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y132" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z132" s="124" t="n">
-        <v>0</v>
-      </c>
+      <c r="T132" s="124" t="n"/>
+      <c r="U132" s="124" t="n"/>
+      <c r="V132" s="124" t="n"/>
+      <c r="W132" s="124" t="n"/>
+      <c r="X132" s="124" t="n"/>
+      <c r="Y132" s="124" t="n"/>
+      <c r="Z132" s="124" t="n"/>
       <c r="AA132" s="124" t="n"/>
       <c r="AB132" s="124" t="n"/>
       <c r="AC132" s="124" t="n"/>
@@ -10195,14 +10134,14 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="185" t="inlineStr">
+      <c r="A133" s="181" t="inlineStr">
         <is>
           <t>Filip Putter, Alstor</t>
         </is>
       </c>
       <c r="B133" s="162" t="n"/>
-      <c r="C133" s="205" t="n"/>
-      <c r="D133" s="184" t="n"/>
+      <c r="C133" s="194" t="n"/>
+      <c r="D133" s="180" t="n"/>
       <c r="E133" s="84" t="n"/>
       <c r="F133" s="88" t="n"/>
       <c r="G133" s="88" t="n"/>
@@ -10211,34 +10150,34 @@
       <c r="J133" s="87" t="n"/>
       <c r="K133" s="87" t="n"/>
       <c r="L133" s="124" t="n"/>
-      <c r="M133" s="88" t="n"/>
-      <c r="N133" s="88" t="n"/>
-      <c r="O133" s="88" t="n"/>
-      <c r="P133" s="88" t="n"/>
-      <c r="Q133" s="87" t="n"/>
-      <c r="R133" s="124" t="n"/>
-      <c r="S133" s="124" t="n"/>
-      <c r="T133" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="U133" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="V133" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="W133" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="X133" s="124" t="n">
+      <c r="M133" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q133" s="87" t="n">
         <v>10</v>
       </c>
-      <c r="Y133" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z133" s="124" t="n">
-        <v>0</v>
-      </c>
+      <c r="R133" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="S133" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="T133" s="124" t="n"/>
+      <c r="U133" s="124" t="n"/>
+      <c r="V133" s="124" t="n"/>
+      <c r="W133" s="124" t="n"/>
+      <c r="X133" s="124" t="n"/>
+      <c r="Y133" s="124" t="n"/>
+      <c r="Z133" s="124" t="n"/>
       <c r="AA133" s="124" t="n"/>
       <c r="AB133" s="124" t="n"/>
       <c r="AC133" s="124" t="n"/>
@@ -10264,43 +10203,43 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="257" t="inlineStr">
+      <c r="A134" s="223" t="inlineStr">
         <is>
           <t>Kungsbacka Skog</t>
         </is>
       </c>
       <c r="B134" s="83" t="n"/>
-      <c r="C134" s="205" t="n"/>
-      <c r="D134" s="184" t="n"/>
+      <c r="C134" s="194" t="n"/>
+      <c r="D134" s="180" t="n"/>
       <c r="E134" s="84" t="n"/>
-      <c r="F134" s="88" t="n"/>
-      <c r="G134" s="88" t="n"/>
-      <c r="H134" s="88" t="n"/>
-      <c r="I134" s="88" t="n"/>
-      <c r="J134" s="87" t="n"/>
-      <c r="K134" s="87" t="n"/>
-      <c r="L134" s="124" t="n"/>
-      <c r="M134" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="N134" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O134" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P134" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q134" s="87" t="n">
+      <c r="F134" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" s="87" t="n">
         <v>3</v>
       </c>
-      <c r="R134" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="S134" s="124" t="n">
-        <v>0</v>
-      </c>
+      <c r="K134" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" s="88" t="n"/>
+      <c r="N134" s="88" t="n"/>
+      <c r="O134" s="88" t="n"/>
+      <c r="P134" s="88" t="n"/>
+      <c r="Q134" s="87" t="n"/>
+      <c r="R134" s="124" t="n"/>
+      <c r="S134" s="124" t="n"/>
       <c r="T134" s="124" t="n"/>
       <c r="U134" s="124" t="n"/>
       <c r="V134" s="124" t="n"/>
@@ -10333,14 +10272,14 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="185" t="inlineStr">
+      <c r="A135" s="181" t="inlineStr">
         <is>
           <t>Joe Lyon</t>
         </is>
       </c>
       <c r="B135" s="162" t="n"/>
-      <c r="C135" s="270" t="n"/>
-      <c r="D135" s="271" t="n"/>
+      <c r="C135" s="271" t="n"/>
+      <c r="D135" s="272" t="n"/>
       <c r="E135" s="84" t="n"/>
       <c r="F135" s="88" t="n"/>
       <c r="G135" s="88" t="n"/>
@@ -10349,34 +10288,34 @@
       <c r="J135" s="87" t="n"/>
       <c r="K135" s="87" t="n"/>
       <c r="L135" s="124" t="n"/>
-      <c r="M135" s="88" t="n"/>
-      <c r="N135" s="88" t="n"/>
-      <c r="O135" s="88" t="n"/>
-      <c r="P135" s="88" t="n"/>
-      <c r="Q135" s="87" t="n"/>
-      <c r="R135" s="124" t="n"/>
-      <c r="S135" s="124" t="n"/>
-      <c r="T135" s="124" t="n">
+      <c r="M135" s="88" t="n">
         <v>10</v>
       </c>
-      <c r="U135" s="124" t="n">
+      <c r="N135" s="88" t="n">
         <v>10</v>
       </c>
-      <c r="V135" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="W135" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="X135" s="124" t="n">
+      <c r="O135" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="87" t="n">
         <v>10</v>
       </c>
-      <c r="Y135" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z135" s="124" t="n">
-        <v>0</v>
-      </c>
+      <c r="R135" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="S135" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="T135" s="124" t="n"/>
+      <c r="U135" s="124" t="n"/>
+      <c r="V135" s="124" t="n"/>
+      <c r="W135" s="124" t="n"/>
+      <c r="X135" s="124" t="n"/>
+      <c r="Y135" s="124" t="n"/>
+      <c r="Z135" s="124" t="n"/>
       <c r="AA135" s="124" t="n"/>
       <c r="AB135" s="124" t="n"/>
       <c r="AC135" s="124" t="n"/>
@@ -10402,43 +10341,43 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="257" t="inlineStr">
+      <c r="A136" s="223" t="inlineStr">
         <is>
           <t>Philip Alexandersson</t>
         </is>
       </c>
       <c r="B136" s="83" t="n"/>
-      <c r="C136" s="275" t="n"/>
-      <c r="D136" s="276" t="n"/>
+      <c r="C136" s="273" t="n"/>
+      <c r="D136" s="274" t="n"/>
       <c r="E136" s="84" t="n"/>
-      <c r="F136" s="88" t="n"/>
-      <c r="G136" s="88" t="n"/>
-      <c r="H136" s="88" t="n"/>
-      <c r="I136" s="88" t="n"/>
-      <c r="J136" s="87" t="n"/>
-      <c r="K136" s="87" t="n"/>
-      <c r="L136" s="124" t="n"/>
-      <c r="M136" s="88" t="n">
+      <c r="F136" s="88" t="n">
         <v>10</v>
       </c>
-      <c r="N136" s="88" t="n">
+      <c r="G136" s="88" t="n">
         <v>10</v>
       </c>
-      <c r="O136" s="88" t="n">
+      <c r="H136" s="88" t="n">
         <v>10</v>
       </c>
-      <c r="P136" s="88" t="n">
+      <c r="I136" s="88" t="n">
         <v>10</v>
       </c>
-      <c r="Q136" s="87" t="n">
+      <c r="J136" s="87" t="n">
         <v>10</v>
       </c>
-      <c r="R136" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="S136" s="124" t="n">
-        <v>0</v>
-      </c>
+      <c r="K136" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" s="88" t="n"/>
+      <c r="N136" s="88" t="n"/>
+      <c r="O136" s="88" t="n"/>
+      <c r="P136" s="88" t="n"/>
+      <c r="Q136" s="87" t="n"/>
+      <c r="R136" s="124" t="n"/>
+      <c r="S136" s="124" t="n"/>
       <c r="T136" s="124" t="n"/>
       <c r="U136" s="124" t="n"/>
       <c r="V136" s="124" t="n"/>
@@ -10471,14 +10410,14 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="257" t="inlineStr">
+      <c r="A137" s="223" t="inlineStr">
         <is>
           <t>Aaron Selfe</t>
         </is>
       </c>
       <c r="B137" s="83" t="n"/>
-      <c r="C137" s="258" t="n"/>
-      <c r="D137" s="259" t="n"/>
+      <c r="C137" s="259" t="n"/>
+      <c r="D137" s="260" t="n"/>
       <c r="E137" s="84" t="n"/>
       <c r="F137" s="88" t="n"/>
       <c r="G137" s="88" t="n"/>
@@ -10487,34 +10426,34 @@
       <c r="J137" s="87" t="n"/>
       <c r="K137" s="87" t="n"/>
       <c r="L137" s="124" t="n"/>
-      <c r="M137" s="88" t="n"/>
-      <c r="N137" s="88" t="n"/>
-      <c r="O137" s="88" t="n"/>
-      <c r="P137" s="88" t="n"/>
-      <c r="Q137" s="87" t="n"/>
-      <c r="R137" s="124" t="n"/>
-      <c r="S137" s="124" t="n"/>
-      <c r="T137" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="U137" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="V137" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="W137" s="124" t="n">
+      <c r="M137" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" s="88" t="n">
         <v>9</v>
       </c>
-      <c r="X137" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y137" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z137" s="124" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q137" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R137" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="S137" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="T137" s="124" t="n"/>
+      <c r="U137" s="124" t="n"/>
+      <c r="V137" s="124" t="n"/>
+      <c r="W137" s="124" t="n"/>
+      <c r="X137" s="124" t="n"/>
+      <c r="Y137" s="124" t="n"/>
+      <c r="Z137" s="124" t="n"/>
       <c r="AA137" s="124" t="n"/>
       <c r="AB137" s="124" t="n"/>
       <c r="AC137" s="124" t="n"/>
@@ -10540,43 +10479,43 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="185" t="inlineStr">
+      <c r="A138" s="181" t="inlineStr">
         <is>
           <t>Philip A/ Ditch Witch</t>
         </is>
       </c>
       <c r="B138" s="162" t="n"/>
-      <c r="C138" s="205" t="n"/>
-      <c r="D138" s="184" t="n"/>
+      <c r="C138" s="194" t="n"/>
+      <c r="D138" s="180" t="n"/>
       <c r="E138" s="84" t="n"/>
-      <c r="F138" s="88" t="n"/>
-      <c r="G138" s="88" t="n"/>
-      <c r="H138" s="88" t="n"/>
-      <c r="I138" s="88" t="n"/>
-      <c r="J138" s="87" t="n"/>
-      <c r="K138" s="87" t="n"/>
-      <c r="L138" s="124" t="n"/>
-      <c r="M138" s="88" t="n">
+      <c r="F138" s="88" t="n">
         <v>10</v>
       </c>
-      <c r="N138" s="88" t="n">
+      <c r="G138" s="88" t="n">
         <v>10</v>
       </c>
-      <c r="O138" s="88" t="n">
+      <c r="H138" s="88" t="n">
         <v>10</v>
       </c>
-      <c r="P138" s="88" t="n">
+      <c r="I138" s="88" t="n">
         <v>10</v>
       </c>
-      <c r="Q138" s="87" t="n">
+      <c r="J138" s="87" t="n">
         <v>10</v>
       </c>
-      <c r="R138" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="S138" s="124" t="n">
-        <v>0</v>
-      </c>
+      <c r="K138" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" s="88" t="n"/>
+      <c r="N138" s="88" t="n"/>
+      <c r="O138" s="88" t="n"/>
+      <c r="P138" s="88" t="n"/>
+      <c r="Q138" s="87" t="n"/>
+      <c r="R138" s="124" t="n"/>
+      <c r="S138" s="124" t="n"/>
       <c r="T138" s="124" t="n"/>
       <c r="U138" s="124" t="n"/>
       <c r="V138" s="124" t="n"/>
@@ -10609,14 +10548,14 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="185" t="inlineStr">
+      <c r="A139" s="181" t="inlineStr">
         <is>
           <t>Johan Kolsäter / Alstor</t>
         </is>
       </c>
       <c r="B139" s="162" t="n"/>
-      <c r="C139" s="205" t="n"/>
-      <c r="D139" s="184" t="n"/>
+      <c r="C139" s="194" t="n"/>
+      <c r="D139" s="180" t="n"/>
       <c r="E139" s="84" t="n"/>
       <c r="F139" s="88" t="n"/>
       <c r="G139" s="88" t="n"/>
@@ -10625,34 +10564,34 @@
       <c r="J139" s="87" t="n"/>
       <c r="K139" s="87" t="n"/>
       <c r="L139" s="124" t="n"/>
-      <c r="M139" s="88" t="n"/>
-      <c r="N139" s="88" t="n"/>
-      <c r="O139" s="88" t="n"/>
-      <c r="P139" s="88" t="n"/>
-      <c r="Q139" s="87" t="n"/>
-      <c r="R139" s="124" t="n"/>
-      <c r="S139" s="124" t="n"/>
-      <c r="T139" s="124" t="n">
+      <c r="M139" s="88" t="n">
         <v>9</v>
       </c>
-      <c r="U139" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="V139" s="124" t="n">
+      <c r="N139" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="88" t="n">
         <v>9</v>
       </c>
-      <c r="W139" s="124" t="n">
+      <c r="P139" s="88" t="n">
         <v>6</v>
       </c>
-      <c r="X139" s="124" t="n">
+      <c r="Q139" s="87" t="n">
         <v>9</v>
       </c>
-      <c r="Y139" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z139" s="124" t="n">
-        <v>0</v>
-      </c>
+      <c r="R139" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="S139" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="T139" s="124" t="n"/>
+      <c r="U139" s="124" t="n"/>
+      <c r="V139" s="124" t="n"/>
+      <c r="W139" s="124" t="n"/>
+      <c r="X139" s="124" t="n"/>
+      <c r="Y139" s="124" t="n"/>
+      <c r="Z139" s="124" t="n"/>
       <c r="AA139" s="124" t="n"/>
       <c r="AB139" s="124" t="n"/>
       <c r="AC139" s="124" t="n"/>
@@ -10678,14 +10617,14 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="257" t="inlineStr">
-        <is>
-          <t>Peter Rask/ Komatsu Skotare</t>
-        </is>
-      </c>
-      <c r="B140" s="210" t="n"/>
-      <c r="C140" s="295" t="n"/>
-      <c r="D140" s="184" t="n"/>
+      <c r="A140" s="223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johan Kolsäter </t>
+        </is>
+      </c>
+      <c r="B140" s="209" t="n"/>
+      <c r="C140" s="267" t="n"/>
+      <c r="D140" s="180" t="n"/>
       <c r="E140" s="84" t="n"/>
       <c r="F140" s="88" t="n"/>
       <c r="G140" s="88" t="n"/>
@@ -10694,34 +10633,34 @@
       <c r="J140" s="87" t="n"/>
       <c r="K140" s="87" t="n"/>
       <c r="L140" s="124" t="n"/>
-      <c r="M140" s="88" t="n">
-        <v>13</v>
-      </c>
-      <c r="N140" s="88" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="O140" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P140" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q140" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="R140" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="S140" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="T140" s="124" t="n"/>
-      <c r="U140" s="124" t="n"/>
-      <c r="V140" s="124" t="n"/>
-      <c r="W140" s="124" t="n"/>
-      <c r="X140" s="124" t="n"/>
-      <c r="Y140" s="124" t="n"/>
-      <c r="Z140" s="124" t="n"/>
+      <c r="M140" s="88" t="n"/>
+      <c r="N140" s="88" t="n"/>
+      <c r="O140" s="88" t="n"/>
+      <c r="P140" s="88" t="n"/>
+      <c r="Q140" s="87" t="n"/>
+      <c r="R140" s="124" t="n"/>
+      <c r="S140" s="124" t="n"/>
+      <c r="T140" s="124" t="n">
+        <v>10</v>
+      </c>
+      <c r="U140" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="V140" s="124" t="n">
+        <v>10</v>
+      </c>
+      <c r="W140" s="124" t="n">
+        <v>7</v>
+      </c>
+      <c r="X140" s="124" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y140" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z140" s="124" t="n">
+        <v>0</v>
+      </c>
       <c r="AA140" s="124" t="n"/>
       <c r="AB140" s="124" t="n"/>
       <c r="AC140" s="124" t="n"/>
@@ -10744,22 +10683,36 @@
       <c r="AT140" s="76" t="n"/>
     </row>
     <row r="141">
-      <c r="A141" s="185" t="inlineStr">
-        <is>
-          <t>Robert Andersson/ Alstor</t>
+      <c r="A141" s="181" t="inlineStr">
+        <is>
+          <t>Peter Rask/ Komatsu Skotare</t>
         </is>
       </c>
       <c r="B141" s="162" t="n"/>
-      <c r="C141" s="205" t="n"/>
-      <c r="D141" s="184" t="n"/>
+      <c r="C141" s="194" t="n"/>
+      <c r="D141" s="180" t="n"/>
       <c r="E141" s="84" t="n"/>
-      <c r="F141" s="88" t="n"/>
-      <c r="G141" s="88" t="n"/>
-      <c r="H141" s="88" t="n"/>
-      <c r="I141" s="88" t="n"/>
-      <c r="J141" s="87" t="n"/>
-      <c r="K141" s="87" t="n"/>
-      <c r="L141" s="124" t="n"/>
+      <c r="F141" s="88" t="n">
+        <v>13</v>
+      </c>
+      <c r="G141" s="88" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H141" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" s="124" t="n">
+        <v>0</v>
+      </c>
       <c r="M141" s="88" t="n"/>
       <c r="N141" s="88" t="n"/>
       <c r="O141" s="88" t="n"/>
@@ -10767,27 +10720,13 @@
       <c r="Q141" s="87" t="n"/>
       <c r="R141" s="124" t="n"/>
       <c r="S141" s="124" t="n"/>
-      <c r="T141" s="124" t="n">
-        <v>10</v>
-      </c>
-      <c r="U141" s="124" t="n">
-        <v>10</v>
-      </c>
-      <c r="V141" s="124" t="n">
-        <v>10</v>
-      </c>
-      <c r="W141" s="124" t="n">
-        <v>10</v>
-      </c>
-      <c r="X141" s="124" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y141" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z141" s="124" t="n">
-        <v>0</v>
-      </c>
+      <c r="T141" s="124" t="n"/>
+      <c r="U141" s="124" t="n"/>
+      <c r="V141" s="124" t="n"/>
+      <c r="W141" s="124" t="n"/>
+      <c r="X141" s="124" t="n"/>
+      <c r="Y141" s="124" t="n"/>
+      <c r="Z141" s="124" t="n"/>
       <c r="AA141" s="124" t="n"/>
       <c r="AB141" s="124" t="n"/>
       <c r="AC141" s="124" t="n"/>
@@ -10813,10 +10752,14 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="266" t="n"/>
-      <c r="B142" s="229" t="n"/>
-      <c r="C142" s="205" t="n"/>
-      <c r="D142" s="184" t="n"/>
+      <c r="A142" s="258" t="inlineStr">
+        <is>
+          <t>Robert Andersson/ Alstor</t>
+        </is>
+      </c>
+      <c r="B142" s="235" t="n"/>
+      <c r="C142" s="194" t="n"/>
+      <c r="D142" s="180" t="n"/>
       <c r="E142" s="84" t="n"/>
       <c r="F142" s="88" t="n"/>
       <c r="G142" s="88" t="n"/>
@@ -10825,13 +10768,27 @@
       <c r="J142" s="87" t="n"/>
       <c r="K142" s="87" t="n"/>
       <c r="L142" s="124" t="n"/>
-      <c r="M142" s="88" t="n"/>
-      <c r="N142" s="88" t="n"/>
-      <c r="O142" s="88" t="n"/>
-      <c r="P142" s="88" t="n"/>
-      <c r="Q142" s="87" t="n"/>
-      <c r="R142" s="124" t="n"/>
-      <c r="S142" s="124" t="n"/>
+      <c r="M142" s="88" t="n">
+        <v>10</v>
+      </c>
+      <c r="N142" s="88" t="n">
+        <v>10</v>
+      </c>
+      <c r="O142" s="88" t="n">
+        <v>10</v>
+      </c>
+      <c r="P142" s="88" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q142" s="87" t="n">
+        <v>10</v>
+      </c>
+      <c r="R142" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="S142" s="124" t="n">
+        <v>0</v>
+      </c>
       <c r="T142" s="124" t="n"/>
       <c r="U142" s="124" t="n"/>
       <c r="V142" s="124" t="n"/>
@@ -10861,10 +10818,10 @@
       <c r="AT142" s="76" t="n"/>
     </row>
     <row r="143">
-      <c r="A143" s="296" t="n"/>
-      <c r="B143" s="297" t="n"/>
-      <c r="C143" s="205" t="n"/>
-      <c r="D143" s="184" t="n"/>
+      <c r="A143" s="187" t="n"/>
+      <c r="B143" s="188" t="n"/>
+      <c r="C143" s="194" t="n"/>
+      <c r="D143" s="180" t="n"/>
       <c r="E143" s="84" t="n"/>
       <c r="F143" s="88" t="n"/>
       <c r="G143" s="88" t="n"/>
@@ -10909,10 +10866,10 @@
       <c r="AT143" s="76" t="n"/>
     </row>
     <row r="144">
-      <c r="A144" s="298" t="n"/>
-      <c r="B144" s="198" t="n"/>
-      <c r="C144" s="205" t="n"/>
-      <c r="D144" s="184" t="n"/>
+      <c r="A144" s="214" t="n"/>
+      <c r="B144" s="196" t="n"/>
+      <c r="C144" s="194" t="n"/>
+      <c r="D144" s="180" t="n"/>
       <c r="E144" s="84" t="n"/>
       <c r="F144" s="88" t="n"/>
       <c r="G144" s="88" t="n"/>
@@ -11008,30 +10965,30 @@
       </c>
     </row>
     <row r="146" ht="19" customHeight="1" s="160" thickBot="1">
-      <c r="A146" s="187" t="inlineStr">
+      <c r="A146" s="210" t="inlineStr">
         <is>
           <t>Trädspecialister</t>
         </is>
       </c>
-      <c r="B146" s="188" t="n"/>
-      <c r="C146" s="188" t="n"/>
-      <c r="D146" s="189" t="n"/>
-      <c r="E146" s="164" t="inlineStr">
+      <c r="B146" s="211" t="n"/>
+      <c r="C146" s="211" t="n"/>
+      <c r="D146" s="212" t="n"/>
+      <c r="E146" s="278" t="inlineStr">
         <is>
           <t>Faktura underlag</t>
         </is>
       </c>
-      <c r="F146" s="165" t="n"/>
-      <c r="G146" s="165" t="n"/>
-      <c r="H146" s="165" t="n"/>
-      <c r="I146" s="165" t="n"/>
-      <c r="J146" s="165" t="n"/>
-      <c r="K146" s="165" t="n"/>
-      <c r="L146" s="165" t="n"/>
-      <c r="M146" s="165" t="n"/>
-      <c r="N146" s="165" t="n"/>
-      <c r="O146" s="166" t="n"/>
-      <c r="P146" s="220" t="n"/>
+      <c r="F146" s="173" t="n"/>
+      <c r="G146" s="173" t="n"/>
+      <c r="H146" s="173" t="n"/>
+      <c r="I146" s="173" t="n"/>
+      <c r="J146" s="173" t="n"/>
+      <c r="K146" s="173" t="n"/>
+      <c r="L146" s="173" t="n"/>
+      <c r="M146" s="173" t="n"/>
+      <c r="N146" s="173" t="n"/>
+      <c r="O146" s="203" t="n"/>
+      <c r="P146" s="225" t="n"/>
       <c r="Q146" s="47" t="n"/>
       <c r="R146" s="48" t="n"/>
       <c r="S146" s="49" t="n"/>
@@ -11045,45 +11002,45 @@
       <c r="AA146" s="23" t="n"/>
       <c r="AB146" s="23" t="n"/>
       <c r="AC146" s="23" t="n"/>
-      <c r="AD146" s="220" t="n"/>
-      <c r="AE146" s="220" t="n"/>
-      <c r="AF146" s="220" t="n"/>
-      <c r="AG146" s="220" t="n"/>
-      <c r="AH146" s="220" t="n"/>
-      <c r="AI146" s="220" t="n"/>
-      <c r="AJ146" s="220" t="n"/>
-      <c r="AK146" s="220" t="n"/>
-      <c r="AL146" s="220" t="n"/>
-      <c r="AM146" s="220" t="n"/>
-      <c r="AN146" s="220" t="n"/>
-      <c r="AO146" s="220" t="n"/>
-      <c r="AP146" s="220" t="n"/>
-      <c r="AQ146" s="220" t="n"/>
-      <c r="AR146" s="220" t="n"/>
-      <c r="AS146" s="220" t="n"/>
+      <c r="AD146" s="225" t="n"/>
+      <c r="AE146" s="225" t="n"/>
+      <c r="AF146" s="225" t="n"/>
+      <c r="AG146" s="225" t="n"/>
+      <c r="AH146" s="225" t="n"/>
+      <c r="AI146" s="225" t="n"/>
+      <c r="AJ146" s="225" t="n"/>
+      <c r="AK146" s="225" t="n"/>
+      <c r="AL146" s="225" t="n"/>
+      <c r="AM146" s="225" t="n"/>
+      <c r="AN146" s="225" t="n"/>
+      <c r="AO146" s="225" t="n"/>
+      <c r="AP146" s="225" t="n"/>
+      <c r="AQ146" s="225" t="n"/>
+      <c r="AR146" s="225" t="n"/>
+      <c r="AS146" s="225" t="n"/>
       <c r="AT146" s="53">
         <f>SUM(AT129:AT145)</f>
         <v/>
       </c>
     </row>
     <row r="147" ht="18.65" customHeight="1" s="160">
-      <c r="A147" s="262" t="inlineStr">
+      <c r="A147" s="205" t="inlineStr">
         <is>
           <t>Personal</t>
         </is>
       </c>
-      <c r="B147" s="263" t="n"/>
-      <c r="C147" s="263" t="n"/>
-      <c r="D147" s="263" t="n"/>
-      <c r="E147" s="230" t="inlineStr">
+      <c r="B147" s="206" t="n"/>
+      <c r="C147" s="206" t="n"/>
+      <c r="D147" s="206" t="n"/>
+      <c r="E147" s="228" t="inlineStr">
         <is>
           <t>Antal</t>
         </is>
       </c>
-      <c r="F147" s="220" t="n"/>
+      <c r="F147" s="225" t="n"/>
       <c r="G147" s="65" t="n"/>
-      <c r="H147" s="230" t="n"/>
-      <c r="I147" s="230" t="inlineStr">
+      <c r="H147" s="228" t="n"/>
+      <c r="I147" s="228" t="inlineStr">
         <is>
           <t>Pris/ Tim</t>
         </is>
@@ -11092,12 +11049,12 @@
       <c r="K147" s="65" t="n"/>
       <c r="L147" s="65" t="n"/>
       <c r="M147" s="65" t="n"/>
-      <c r="N147" s="240" t="inlineStr">
+      <c r="N147" s="285" t="inlineStr">
         <is>
           <t>Sa/kr</t>
         </is>
       </c>
-      <c r="O147" s="241" t="n"/>
+      <c r="O147" s="286" t="n"/>
       <c r="R147" s="43" t="n"/>
       <c r="S147" s="43" t="n"/>
       <c r="T147" s="43" t="n"/>
@@ -11105,20 +11062,20 @@
       <c r="V147" s="43" t="n"/>
       <c r="X147" s="2" t="n"/>
       <c r="Y147" s="36" t="n"/>
-      <c r="Z147" s="220" t="n"/>
-      <c r="AA147" s="220" t="n"/>
-      <c r="AB147" s="220" t="n"/>
-      <c r="AC147" s="220" t="n"/>
-      <c r="AD147" s="220" t="n"/>
+      <c r="Z147" s="225" t="n"/>
+      <c r="AA147" s="225" t="n"/>
+      <c r="AB147" s="225" t="n"/>
+      <c r="AC147" s="225" t="n"/>
+      <c r="AD147" s="225" t="n"/>
       <c r="AE147" s="37" t="n"/>
     </row>
     <row r="148">
-      <c r="A148" s="177" t="inlineStr">
+      <c r="A148" s="171" t="inlineStr">
         <is>
           <t>Platschef /arborist trädbesiktare</t>
         </is>
       </c>
-      <c r="E148" s="172">
+      <c r="E148" s="169">
         <f>AT9</f>
         <v/>
       </c>
@@ -11127,11 +11084,11 @@
         <v>729</v>
       </c>
       <c r="K148" s="2" t="n"/>
-      <c r="L148" s="169">
+      <c r="L148" s="184">
         <f>E148*H148</f>
         <v/>
       </c>
-      <c r="O148" s="170" t="n"/>
+      <c r="O148" s="167" t="n"/>
       <c r="Q148" s="34" t="n"/>
       <c r="R148" s="2" t="n"/>
       <c r="S148" s="2" t="n"/>
@@ -11147,15 +11104,15 @@
       <c r="AA148" s="2" t="n"/>
       <c r="AB148" s="2" t="n"/>
       <c r="AC148" s="2" t="n"/>
-      <c r="AE148" s="170" t="n"/>
+      <c r="AE148" s="167" t="n"/>
     </row>
     <row r="149" ht="15.65" customHeight="1" s="160">
-      <c r="A149" s="177" t="inlineStr">
+      <c r="A149" s="171" t="inlineStr">
         <is>
           <t>Trädbesiktare/arborist</t>
         </is>
       </c>
-      <c r="E149" s="172">
+      <c r="E149" s="169">
         <f>AT17</f>
         <v/>
       </c>
@@ -11164,29 +11121,29 @@
         <v>701</v>
       </c>
       <c r="K149" s="2" t="n"/>
-      <c r="L149" s="169">
+      <c r="L149" s="184">
         <f>E149*H149</f>
         <v/>
       </c>
-      <c r="O149" s="170" t="n"/>
+      <c r="O149" s="167" t="n"/>
       <c r="R149" s="33" t="n"/>
       <c r="T149" s="2" t="n"/>
-      <c r="Y149" s="273" t="n"/>
+      <c r="Y149" s="222" t="n"/>
       <c r="Z149" s="33" t="inlineStr">
         <is>
           <t>st:</t>
         </is>
       </c>
-      <c r="AA149" s="242" t="n"/>
-      <c r="AE149" s="170" t="n"/>
+      <c r="AA149" s="236" t="n"/>
+      <c r="AE149" s="167" t="n"/>
     </row>
     <row r="150" ht="15" customHeight="1" s="160" thickBot="1">
-      <c r="A150" s="177" t="inlineStr">
+      <c r="A150" s="171" t="inlineStr">
         <is>
           <t xml:space="preserve"> Restid 50% Trädbesiktare/arborist,platschef</t>
         </is>
       </c>
-      <c r="E150" s="172">
+      <c r="E150" s="169">
         <f>AA149</f>
         <v/>
       </c>
@@ -11195,27 +11152,27 @@
         <v>350.5</v>
       </c>
       <c r="K150" s="2" t="n"/>
-      <c r="L150" s="169">
+      <c r="L150" s="184">
         <f>E150*H150</f>
         <v/>
       </c>
-      <c r="O150" s="170" t="n"/>
+      <c r="O150" s="167" t="n"/>
       <c r="X150" s="2" t="n"/>
       <c r="Y150" s="40" t="n"/>
-      <c r="Z150" s="165" t="n"/>
+      <c r="Z150" s="173" t="n"/>
       <c r="AA150" s="41" t="n"/>
-      <c r="AB150" s="165" t="n"/>
-      <c r="AC150" s="165" t="n"/>
-      <c r="AD150" s="165" t="n"/>
-      <c r="AE150" s="166" t="n"/>
+      <c r="AB150" s="173" t="n"/>
+      <c r="AC150" s="173" t="n"/>
+      <c r="AD150" s="173" t="n"/>
+      <c r="AE150" s="203" t="n"/>
     </row>
     <row r="151">
-      <c r="A151" s="177" t="inlineStr">
+      <c r="A151" s="171" t="inlineStr">
         <is>
           <t>Motormanuell arborist</t>
         </is>
       </c>
-      <c r="E151" s="172">
+      <c r="E151" s="169">
         <f>AT48</f>
         <v/>
       </c>
@@ -11224,11 +11181,11 @@
         <v>667</v>
       </c>
       <c r="K151" s="2" t="n"/>
-      <c r="L151" s="169">
+      <c r="L151" s="184">
         <f>E151*H151</f>
         <v/>
       </c>
-      <c r="O151" s="170" t="n"/>
+      <c r="O151" s="167" t="n"/>
       <c r="X151" s="31" t="n"/>
       <c r="Y151" s="31" t="n"/>
       <c r="Z151" s="31" t="n"/>
@@ -11242,12 +11199,12 @@
       <c r="AF151" s="31" t="n"/>
     </row>
     <row r="152" ht="15" customHeight="1" s="160" thickBot="1">
-      <c r="A152" s="177" t="inlineStr">
+      <c r="A152" s="171" t="inlineStr">
         <is>
           <t xml:space="preserve"> Restid 50 % Motormanuell arborist</t>
         </is>
       </c>
-      <c r="E152" s="172">
+      <c r="E152" s="169">
         <f>AA155</f>
         <v/>
       </c>
@@ -11256,11 +11213,11 @@
         <v>333.5</v>
       </c>
       <c r="K152" s="2" t="n"/>
-      <c r="L152" s="169">
+      <c r="L152" s="184">
         <f>E152*H152</f>
         <v/>
       </c>
-      <c r="O152" s="170" t="n"/>
+      <c r="O152" s="167" t="n"/>
       <c r="X152" s="31" t="n"/>
       <c r="Y152" s="31" t="n"/>
       <c r="Z152" s="31" t="n"/>
@@ -11272,12 +11229,12 @@
       <c r="AF152" s="31" t="n"/>
     </row>
     <row r="153">
-      <c r="A153" s="177" t="inlineStr">
+      <c r="A153" s="171" t="inlineStr">
         <is>
           <t>Järnhäst,Järnoxe (Terrex) exl förare</t>
         </is>
       </c>
-      <c r="E153" s="172">
+      <c r="E153" s="169">
         <f>AT87</f>
         <v/>
       </c>
@@ -11286,44 +11243,44 @@
         <v>224</v>
       </c>
       <c r="K153" s="2" t="n"/>
-      <c r="L153" s="169">
+      <c r="L153" s="184">
         <f>E153*H153</f>
         <v/>
       </c>
-      <c r="O153" s="170" t="n"/>
+      <c r="O153" s="167" t="n"/>
       <c r="Q153" s="43" t="n"/>
       <c r="R153" s="43" t="n"/>
       <c r="S153" s="43" t="n"/>
       <c r="T153" s="43" t="n"/>
       <c r="U153" s="43" t="n"/>
       <c r="Y153" s="36" t="n"/>
-      <c r="Z153" s="220" t="n"/>
-      <c r="AA153" s="220" t="n"/>
-      <c r="AB153" s="220" t="n"/>
-      <c r="AC153" s="220" t="n"/>
-      <c r="AD153" s="220" t="n"/>
+      <c r="Z153" s="225" t="n"/>
+      <c r="AA153" s="225" t="n"/>
+      <c r="AB153" s="225" t="n"/>
+      <c r="AC153" s="225" t="n"/>
+      <c r="AD153" s="225" t="n"/>
       <c r="AE153" s="37" t="n"/>
     </row>
     <row r="154">
-      <c r="A154" s="177" t="inlineStr">
+      <c r="A154" s="171" t="inlineStr">
         <is>
           <t>Hjullastare inkl förare</t>
         </is>
       </c>
-      <c r="E154" s="279">
+      <c r="E154" s="253">
         <f>AT82</f>
         <v/>
       </c>
       <c r="G154" s="45" t="n"/>
-      <c r="H154" s="173" t="n">
+      <c r="H154" s="230" t="n">
         <v>796</v>
       </c>
       <c r="K154" s="45" t="n"/>
-      <c r="L154" s="243">
+      <c r="L154" s="166">
         <f>E154*H154</f>
         <v/>
       </c>
-      <c r="O154" s="170" t="n"/>
+      <c r="O154" s="167" t="n"/>
       <c r="Q154" s="34" t="n"/>
       <c r="R154" s="2" t="n"/>
       <c r="S154" s="2" t="n"/>
@@ -11338,73 +11295,73 @@
       <c r="AA154" s="2" t="n"/>
       <c r="AB154" s="2" t="n"/>
       <c r="AC154" s="2" t="n"/>
-      <c r="AE154" s="170" t="n"/>
+      <c r="AE154" s="167" t="n"/>
     </row>
     <row r="155" ht="15.65" customHeight="1" s="160">
-      <c r="A155" s="274" t="inlineStr">
+      <c r="A155" s="237" t="inlineStr">
         <is>
           <t>Flismaskin inkl förare</t>
         </is>
       </c>
-      <c r="E155" s="279">
+      <c r="E155" s="253">
         <f>AT92</f>
         <v/>
       </c>
       <c r="G155" s="2" t="n"/>
-      <c r="H155" s="173" t="n">
+      <c r="H155" s="230" t="n">
         <v>897</v>
       </c>
       <c r="K155" s="2" t="n"/>
-      <c r="L155" s="169">
+      <c r="L155" s="184">
         <f>E155*H155</f>
         <v/>
       </c>
-      <c r="O155" s="170" t="n"/>
+      <c r="O155" s="167" t="n"/>
       <c r="R155" s="33" t="n"/>
-      <c r="S155" s="218" t="n"/>
-      <c r="Y155" s="273" t="n"/>
+      <c r="S155" s="189" t="n"/>
+      <c r="Y155" s="222" t="n"/>
       <c r="Z155" s="33" t="inlineStr">
         <is>
           <t>st:</t>
         </is>
       </c>
-      <c r="AA155" s="242" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE155" s="170" t="n"/>
+      <c r="AA155" s="236" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE155" s="167" t="n"/>
     </row>
     <row r="156" ht="15" customHeight="1" s="160" thickBot="1">
-      <c r="A156" s="177" t="inlineStr">
+      <c r="A156" s="171" t="inlineStr">
         <is>
           <t>SOS Ledare</t>
         </is>
       </c>
-      <c r="E156" s="172" t="n"/>
+      <c r="E156" s="169" t="n"/>
       <c r="G156" s="2" t="n"/>
       <c r="H156" s="159" t="n">
         <v>667</v>
       </c>
       <c r="K156" s="2" t="n"/>
-      <c r="L156" s="169">
+      <c r="L156" s="184">
         <f>E156*H156</f>
         <v/>
       </c>
-      <c r="O156" s="170" t="n"/>
+      <c r="O156" s="167" t="n"/>
       <c r="Y156" s="40" t="n"/>
-      <c r="Z156" s="165" t="n"/>
+      <c r="Z156" s="173" t="n"/>
       <c r="AA156" s="41" t="n"/>
-      <c r="AB156" s="165" t="n"/>
-      <c r="AC156" s="165" t="n"/>
-      <c r="AD156" s="165" t="n"/>
-      <c r="AE156" s="166" t="n"/>
+      <c r="AB156" s="173" t="n"/>
+      <c r="AC156" s="173" t="n"/>
+      <c r="AD156" s="173" t="n"/>
+      <c r="AE156" s="203" t="n"/>
     </row>
     <row r="157" ht="15.75" customHeight="1" s="160" thickBot="1">
-      <c r="A157" s="177" t="inlineStr">
+      <c r="A157" s="171" t="inlineStr">
         <is>
           <t>Övriga Markarbeten(motorsåg)</t>
         </is>
       </c>
-      <c r="E157" s="172">
+      <c r="E157" s="169">
         <f>AT77</f>
         <v/>
       </c>
@@ -11413,39 +11370,39 @@
         <v>448</v>
       </c>
       <c r="K157" s="2" t="n"/>
-      <c r="L157" s="169">
+      <c r="L157" s="184">
         <f>E157*H157</f>
         <v/>
       </c>
-      <c r="O157" s="170" t="n"/>
+      <c r="O157" s="167" t="n"/>
     </row>
     <row r="158">
-      <c r="A158" s="177" t="n"/>
-      <c r="E158" s="172" t="n"/>
+      <c r="A158" s="171" t="n"/>
+      <c r="E158" s="169" t="n"/>
       <c r="G158" s="2" t="n"/>
       <c r="H158" s="159" t="n"/>
       <c r="K158" s="2" t="n"/>
-      <c r="L158" s="169">
+      <c r="L158" s="184">
         <f>E158*H158</f>
         <v/>
       </c>
-      <c r="O158" s="170" t="n"/>
+      <c r="O158" s="167" t="n"/>
       <c r="V158" s="4" t="n"/>
       <c r="Y158" s="80" t="n"/>
-      <c r="Z158" s="263" t="n"/>
-      <c r="AA158" s="263" t="n"/>
-      <c r="AB158" s="263" t="n"/>
-      <c r="AC158" s="263" t="n"/>
-      <c r="AD158" s="263" t="n"/>
-      <c r="AE158" s="241" t="n"/>
+      <c r="Z158" s="206" t="n"/>
+      <c r="AA158" s="206" t="n"/>
+      <c r="AB158" s="206" t="n"/>
+      <c r="AC158" s="206" t="n"/>
+      <c r="AD158" s="206" t="n"/>
+      <c r="AE158" s="286" t="n"/>
     </row>
     <row r="159">
-      <c r="A159" s="177" t="inlineStr">
+      <c r="A159" s="171" t="inlineStr">
         <is>
           <t>Skotare Komatsu</t>
         </is>
       </c>
-      <c r="E159" s="172">
+      <c r="E159" s="169">
         <f>AT113</f>
         <v/>
       </c>
@@ -11454,25 +11411,25 @@
         <v>1233</v>
       </c>
       <c r="K159" s="2" t="n"/>
-      <c r="L159" s="169">
+      <c r="L159" s="184">
         <f>E159*H159</f>
         <v/>
       </c>
-      <c r="O159" s="170" t="n"/>
+      <c r="O159" s="167" t="n"/>
       <c r="Y159" s="38" t="inlineStr">
         <is>
           <t>Övrig arbetstid:</t>
         </is>
       </c>
-      <c r="AE159" s="170" t="n"/>
+      <c r="AE159" s="167" t="n"/>
     </row>
     <row r="160" ht="15" customHeight="1" s="160">
-      <c r="A160" s="177" t="inlineStr">
+      <c r="A160" s="171" t="inlineStr">
         <is>
           <t>Skotare liten under 11 ton (Alstor)</t>
         </is>
       </c>
-      <c r="E160" s="172">
+      <c r="E160" s="169">
         <f>AT102</f>
         <v/>
       </c>
@@ -11481,33 +11438,33 @@
         <v>908</v>
       </c>
       <c r="K160" s="2" t="n"/>
-      <c r="L160" s="169">
+      <c r="L160" s="184">
         <f>E160*H160</f>
         <v/>
       </c>
-      <c r="O160" s="170" t="n"/>
+      <c r="O160" s="167" t="n"/>
       <c r="Q160" s="44" t="n"/>
       <c r="R160" s="44" t="n"/>
       <c r="S160" s="44" t="n"/>
       <c r="T160" s="44" t="n"/>
       <c r="U160" s="44" t="n"/>
       <c r="V160" s="44" t="n"/>
-      <c r="Y160" s="273" t="n"/>
+      <c r="Y160" s="222" t="n"/>
       <c r="Z160" s="2" t="inlineStr">
         <is>
           <t>Tim:</t>
         </is>
       </c>
-      <c r="AA160" s="238" t="n"/>
-      <c r="AE160" s="170" t="n"/>
+      <c r="AA160" s="263" t="n"/>
+      <c r="AE160" s="167" t="n"/>
     </row>
     <row r="161" ht="15.75" customHeight="1" s="160" thickBot="1">
-      <c r="A161" s="177" t="inlineStr">
+      <c r="A161" s="171" t="inlineStr">
         <is>
           <t>Lastbil</t>
         </is>
       </c>
-      <c r="E161" s="172">
+      <c r="E161" s="169">
         <f>AT108</f>
         <v/>
       </c>
@@ -11516,11 +11473,11 @@
         <v>1121</v>
       </c>
       <c r="K161" s="2" t="n"/>
-      <c r="L161" s="169">
+      <c r="L161" s="184">
         <f>E161*H161</f>
         <v/>
       </c>
-      <c r="O161" s="170" t="n"/>
+      <c r="O161" s="167" t="n"/>
       <c r="Q161" s="44" t="n"/>
       <c r="R161" s="44" t="n"/>
       <c r="S161" s="44" t="n"/>
@@ -11528,24 +11485,24 @@
       <c r="U161" s="44" t="n"/>
       <c r="V161" s="44" t="n"/>
       <c r="Y161" s="40" t="n"/>
-      <c r="Z161" s="175" t="n"/>
-      <c r="AA161" s="175" t="n"/>
-      <c r="AB161" s="175" t="n"/>
-      <c r="AC161" s="175" t="n"/>
-      <c r="AD161" s="175" t="n"/>
-      <c r="AE161" s="166" t="n"/>
+      <c r="Z161" s="281" t="n"/>
+      <c r="AA161" s="281" t="n"/>
+      <c r="AB161" s="281" t="n"/>
+      <c r="AC161" s="281" t="n"/>
+      <c r="AD161" s="281" t="n"/>
+      <c r="AE161" s="203" t="n"/>
     </row>
     <row r="162">
-      <c r="A162" s="177" t="n"/>
-      <c r="E162" s="201" t="n"/>
+      <c r="A162" s="171" t="n"/>
+      <c r="E162" s="200" t="n"/>
       <c r="G162" s="2" t="n"/>
-      <c r="H162" s="252" t="n"/>
+      <c r="H162" s="287" t="n"/>
       <c r="K162" s="2" t="n"/>
-      <c r="L162" s="169">
+      <c r="L162" s="184">
         <f>E162*H162</f>
         <v/>
       </c>
-      <c r="O162" s="170" t="n"/>
+      <c r="O162" s="167" t="n"/>
       <c r="Q162" s="44" t="n"/>
       <c r="R162" s="44" t="n"/>
       <c r="S162" s="44" t="n"/>
@@ -11554,12 +11511,12 @@
       <c r="V162" s="44" t="n"/>
     </row>
     <row r="163" ht="15" customHeight="1" s="160" thickBot="1">
-      <c r="A163" s="177" t="inlineStr">
+      <c r="A163" s="171" t="inlineStr">
         <is>
           <t>Km Ersättning Trädbesiktare/platschef</t>
         </is>
       </c>
-      <c r="E163" s="172">
+      <c r="E163" s="169">
         <f>AT25</f>
         <v/>
       </c>
@@ -11568,11 +11525,11 @@
         <v>3.9</v>
       </c>
       <c r="K163" s="2" t="n"/>
-      <c r="L163" s="169">
+      <c r="L163" s="184">
         <f>E163*H163</f>
         <v/>
       </c>
-      <c r="O163" s="170" t="n"/>
+      <c r="O163" s="167" t="n"/>
       <c r="Q163" s="44" t="n"/>
       <c r="R163" s="44" t="n"/>
       <c r="S163" s="44" t="n"/>
@@ -11581,12 +11538,12 @@
       <c r="V163" s="44" t="n"/>
     </row>
     <row r="164">
-      <c r="A164" s="177" t="inlineStr">
+      <c r="A164" s="171" t="inlineStr">
         <is>
           <t>Km Ersättning  arborist Servicebil</t>
         </is>
       </c>
-      <c r="E164" s="172">
+      <c r="E164" s="169">
         <f>AT68</f>
         <v/>
       </c>
@@ -11595,55 +11552,55 @@
         <v>4.5</v>
       </c>
       <c r="K164" s="2" t="n"/>
-      <c r="L164" s="169">
+      <c r="L164" s="184">
         <f>E164*H164</f>
         <v/>
       </c>
-      <c r="O164" s="170" t="n"/>
+      <c r="O164" s="167" t="n"/>
       <c r="Y164" s="80" t="n"/>
-      <c r="Z164" s="263" t="n"/>
-      <c r="AA164" s="263" t="n"/>
-      <c r="AB164" s="263" t="n"/>
-      <c r="AC164" s="263" t="n"/>
-      <c r="AD164" s="263" t="n"/>
-      <c r="AE164" s="241" t="n"/>
+      <c r="Z164" s="206" t="n"/>
+      <c r="AA164" s="206" t="n"/>
+      <c r="AB164" s="206" t="n"/>
+      <c r="AC164" s="206" t="n"/>
+      <c r="AD164" s="206" t="n"/>
+      <c r="AE164" s="286" t="n"/>
     </row>
     <row r="165">
-      <c r="A165" s="177" t="n"/>
-      <c r="E165" s="186" t="n"/>
+      <c r="A165" s="171" t="n"/>
+      <c r="E165" s="170" t="n"/>
       <c r="G165" s="2" t="n"/>
       <c r="H165" s="159" t="n"/>
       <c r="K165" s="5" t="n">
         <v>0.08</v>
       </c>
-      <c r="L165" s="169">
+      <c r="L165" s="184">
         <f>H165*1.08</f>
         <v/>
       </c>
-      <c r="O165" s="170" t="n"/>
+      <c r="O165" s="167" t="n"/>
       <c r="Y165" s="38" t="inlineStr">
         <is>
           <t>Beräknad icke-korrekt inskrivet kr</t>
         </is>
       </c>
-      <c r="AE165" s="170" t="n"/>
+      <c r="AE165" s="167" t="n"/>
     </row>
     <row r="166">
-      <c r="A166" s="177" t="n"/>
-      <c r="E166" s="186" t="n"/>
+      <c r="A166" s="171" t="n"/>
+      <c r="E166" s="170" t="n"/>
       <c r="G166" s="2" t="n"/>
       <c r="H166" s="159" t="n"/>
       <c r="K166" s="5" t="n"/>
-      <c r="L166" s="169" t="n"/>
-      <c r="O166" s="170" t="n"/>
+      <c r="L166" s="184" t="n"/>
+      <c r="O166" s="167" t="n"/>
       <c r="P166" s="159" t="n"/>
-      <c r="Y166" s="273" t="n"/>
+      <c r="Y166" s="222" t="n"/>
       <c r="Z166" s="2" t="inlineStr">
         <is>
           <t>Kr:</t>
         </is>
       </c>
-      <c r="AA166" s="238">
+      <c r="AA166" s="263">
         <f>AT146*AC166</f>
         <v/>
       </c>
@@ -11655,46 +11612,46 @@
           <t>kr/h</t>
         </is>
       </c>
-      <c r="AE166" s="170" t="n"/>
+      <c r="AE166" s="167" t="n"/>
     </row>
     <row r="167" ht="15" customHeight="1" s="160" thickBot="1">
-      <c r="A167" s="177" t="n"/>
-      <c r="E167" s="186" t="n"/>
+      <c r="A167" s="171" t="n"/>
+      <c r="E167" s="170" t="n"/>
       <c r="G167" s="2" t="n"/>
       <c r="H167" s="159" t="n"/>
       <c r="K167" s="5" t="n"/>
-      <c r="L167" s="169" t="n"/>
-      <c r="O167" s="170" t="n"/>
+      <c r="L167" s="184" t="n"/>
+      <c r="O167" s="167" t="n"/>
       <c r="P167" s="5" t="n"/>
       <c r="Y167" s="40" t="n"/>
-      <c r="Z167" s="175" t="n"/>
-      <c r="AA167" s="175" t="n"/>
-      <c r="AB167" s="175" t="n"/>
-      <c r="AC167" s="175" t="n"/>
-      <c r="AD167" s="175" t="n"/>
-      <c r="AE167" s="166" t="n"/>
+      <c r="Z167" s="281" t="n"/>
+      <c r="AA167" s="281" t="n"/>
+      <c r="AB167" s="281" t="n"/>
+      <c r="AC167" s="281" t="n"/>
+      <c r="AD167" s="281" t="n"/>
+      <c r="AE167" s="203" t="n"/>
     </row>
     <row r="168" ht="15" customHeight="1" s="160" thickBot="1">
-      <c r="A168" s="174" t="n"/>
-      <c r="B168" s="175" t="n"/>
-      <c r="C168" s="175" t="n"/>
-      <c r="D168" s="175" t="n"/>
-      <c r="E168" s="204" t="n"/>
-      <c r="F168" s="165" t="n"/>
+      <c r="A168" s="280" t="n"/>
+      <c r="B168" s="281" t="n"/>
+      <c r="C168" s="281" t="n"/>
+      <c r="D168" s="281" t="n"/>
+      <c r="E168" s="172" t="n"/>
+      <c r="F168" s="173" t="n"/>
       <c r="G168" s="41" t="n"/>
-      <c r="H168" s="181" t="n"/>
-      <c r="I168" s="165" t="n"/>
-      <c r="J168" s="165" t="n"/>
+      <c r="H168" s="262" t="n"/>
+      <c r="I168" s="173" t="n"/>
+      <c r="J168" s="173" t="n"/>
       <c r="K168" s="25" t="n">
         <v>0.08</v>
       </c>
-      <c r="L168" s="222">
+      <c r="L168" s="202">
         <f>H168*1.08</f>
         <v/>
       </c>
-      <c r="M168" s="165" t="n"/>
-      <c r="N168" s="165" t="n"/>
-      <c r="O168" s="166" t="n"/>
+      <c r="M168" s="173" t="n"/>
+      <c r="N168" s="173" t="n"/>
+      <c r="O168" s="203" t="n"/>
       <c r="P168" s="5" t="n"/>
     </row>
     <row r="169" ht="15" customHeight="1" s="160" thickBot="1">
@@ -11707,7 +11664,7 @@
           <t>SA:</t>
         </is>
       </c>
-      <c r="L169" s="244">
+      <c r="L169" s="279">
         <f>SUM(L148:O168)</f>
         <v/>
       </c>
@@ -11743,10 +11700,10 @@
       <c r="H171" s="3" t="n"/>
       <c r="I171" s="3" t="n"/>
       <c r="J171" s="3" t="n"/>
-      <c r="M171" s="203" t="n"/>
+      <c r="M171" s="182" t="n"/>
     </row>
     <row r="172" ht="22.5" customHeight="1" s="160">
-      <c r="A172" s="272" t="n"/>
+      <c r="A172" s="221" t="n"/>
       <c r="C172" s="13" t="n"/>
       <c r="D172" s="7" t="n"/>
       <c r="R172" t="inlineStr">
@@ -11766,14 +11723,14 @@
       </c>
     </row>
     <row r="173" ht="22.5" customHeight="1" s="160">
-      <c r="A173" s="273" t="n"/>
+      <c r="A173" s="222" t="n"/>
       <c r="C173" s="13" t="n"/>
       <c r="K173" s="2" t="inlineStr">
         <is>
           <t>SA:</t>
         </is>
       </c>
-      <c r="L173" s="280">
+      <c r="L173" s="277">
         <f>L169</f>
         <v/>
       </c>
@@ -11809,1045 +11766,6 @@
       <c r="A177" s="4" t="n"/>
       <c r="B177" s="4" t="n"/>
       <c r="C177" s="4" t="n"/>
-    </row>
-    <row r="517">
-      <c r="F517" t="n">
-        <v>0</v>
-      </c>
-      <c r="G517" t="n">
-        <v>8</v>
-      </c>
-      <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="n">
-        <v>0</v>
-      </c>
-      <c r="J517" t="n">
-        <v>0</v>
-      </c>
-      <c r="K517" t="n">
-        <v>0</v>
-      </c>
-      <c r="L517" t="n">
-        <v>0</v>
-      </c>
-      <c r="M517" t="n">
-        <v>0</v>
-      </c>
-      <c r="N517" t="n">
-        <v>8</v>
-      </c>
-      <c r="O517" t="n">
-        <v>0</v>
-      </c>
-      <c r="P517" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q517" t="n">
-        <v>0</v>
-      </c>
-      <c r="R517" t="n">
-        <v>0</v>
-      </c>
-      <c r="S517" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="F518" t="n">
-        <v>0</v>
-      </c>
-      <c r="G518" t="n">
-        <v>8</v>
-      </c>
-      <c r="H518" t="n">
-        <v>8</v>
-      </c>
-      <c r="I518" t="n">
-        <v>8</v>
-      </c>
-      <c r="J518" t="n">
-        <v>0</v>
-      </c>
-      <c r="K518" t="n">
-        <v>0</v>
-      </c>
-      <c r="L518" t="n">
-        <v>0</v>
-      </c>
-      <c r="M518" t="n">
-        <v>0</v>
-      </c>
-      <c r="N518" t="n">
-        <v>8</v>
-      </c>
-      <c r="O518" t="n">
-        <v>8</v>
-      </c>
-      <c r="P518" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q518" t="n">
-        <v>0</v>
-      </c>
-      <c r="R518" t="n">
-        <v>0</v>
-      </c>
-      <c r="S518" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="F519" t="n">
-        <v>8</v>
-      </c>
-      <c r="G519" t="n">
-        <v>8</v>
-      </c>
-      <c r="H519" t="n">
-        <v>8</v>
-      </c>
-      <c r="I519" t="n">
-        <v>0</v>
-      </c>
-      <c r="J519" t="n">
-        <v>0</v>
-      </c>
-      <c r="K519" t="n">
-        <v>0</v>
-      </c>
-      <c r="L519" t="n">
-        <v>0</v>
-      </c>
-      <c r="M519" t="n">
-        <v>8</v>
-      </c>
-      <c r="N519" t="n">
-        <v>8</v>
-      </c>
-      <c r="O519" t="n">
-        <v>8</v>
-      </c>
-      <c r="P519" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q519" t="n">
-        <v>0</v>
-      </c>
-      <c r="R519" t="n">
-        <v>0</v>
-      </c>
-      <c r="S519" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="F520" t="n">
-        <v>0</v>
-      </c>
-      <c r="G520" t="n">
-        <v>8</v>
-      </c>
-      <c r="H520" t="n">
-        <v>8</v>
-      </c>
-      <c r="I520" t="n">
-        <v>8</v>
-      </c>
-      <c r="J520" t="n">
-        <v>8</v>
-      </c>
-      <c r="K520" t="n">
-        <v>0</v>
-      </c>
-      <c r="L520" t="n">
-        <v>0</v>
-      </c>
-      <c r="T520" t="n">
-        <v>0</v>
-      </c>
-      <c r="U520" t="n">
-        <v>8</v>
-      </c>
-      <c r="V520" t="n">
-        <v>8</v>
-      </c>
-      <c r="W520" t="n">
-        <v>8</v>
-      </c>
-      <c r="X520" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y520" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z520" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="G525" t="n">
-        <v>46</v>
-      </c>
-      <c r="N525" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="526">
-      <c r="G526" t="n">
-        <v>328</v>
-      </c>
-      <c r="H526" t="n">
-        <v>328</v>
-      </c>
-      <c r="I526" t="n">
-        <v>328</v>
-      </c>
-      <c r="N526" t="n">
-        <v>328</v>
-      </c>
-      <c r="O526" t="n">
-        <v>328</v>
-      </c>
-      <c r="P526" t="n">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="F534" t="n">
-        <v>8</v>
-      </c>
-      <c r="G534" t="n">
-        <v>8</v>
-      </c>
-      <c r="H534" t="n">
-        <v>8</v>
-      </c>
-      <c r="I534" t="n">
-        <v>0</v>
-      </c>
-      <c r="J534" t="n">
-        <v>0</v>
-      </c>
-      <c r="K534" t="n">
-        <v>0</v>
-      </c>
-      <c r="L534" t="n">
-        <v>0</v>
-      </c>
-      <c r="M534" t="n">
-        <v>8</v>
-      </c>
-      <c r="N534" t="n">
-        <v>8</v>
-      </c>
-      <c r="O534" t="n">
-        <v>8</v>
-      </c>
-      <c r="P534" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q534" t="n">
-        <v>0</v>
-      </c>
-      <c r="R534" t="n">
-        <v>0</v>
-      </c>
-      <c r="S534" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="F535" t="n">
-        <v>8</v>
-      </c>
-      <c r="G535" t="n">
-        <v>8</v>
-      </c>
-      <c r="H535" t="n">
-        <v>8</v>
-      </c>
-      <c r="I535" t="n">
-        <v>0</v>
-      </c>
-      <c r="J535" t="n">
-        <v>0</v>
-      </c>
-      <c r="K535" t="n">
-        <v>0</v>
-      </c>
-      <c r="L535" t="n">
-        <v>0</v>
-      </c>
-      <c r="M535" t="n">
-        <v>8</v>
-      </c>
-      <c r="N535" t="n">
-        <v>8</v>
-      </c>
-      <c r="O535" t="n">
-        <v>8</v>
-      </c>
-      <c r="P535" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q535" t="n">
-        <v>0</v>
-      </c>
-      <c r="R535" t="n">
-        <v>0</v>
-      </c>
-      <c r="S535" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="F536" t="n">
-        <v>0</v>
-      </c>
-      <c r="G536" t="n">
-        <v>0</v>
-      </c>
-      <c r="H536" t="n">
-        <v>8</v>
-      </c>
-      <c r="I536" t="n">
-        <v>0</v>
-      </c>
-      <c r="J536" t="n">
-        <v>0</v>
-      </c>
-      <c r="K536" t="n">
-        <v>0</v>
-      </c>
-      <c r="L536" t="n">
-        <v>0</v>
-      </c>
-      <c r="M536" t="n">
-        <v>0</v>
-      </c>
-      <c r="N536" t="n">
-        <v>0</v>
-      </c>
-      <c r="O536" t="n">
-        <v>8</v>
-      </c>
-      <c r="P536" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q536" t="n">
-        <v>0</v>
-      </c>
-      <c r="R536" t="n">
-        <v>0</v>
-      </c>
-      <c r="S536" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="F537" t="n">
-        <v>0</v>
-      </c>
-      <c r="G537" t="n">
-        <v>0</v>
-      </c>
-      <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="n">
-        <v>8</v>
-      </c>
-      <c r="J537" t="n">
-        <v>0</v>
-      </c>
-      <c r="K537" t="n">
-        <v>0</v>
-      </c>
-      <c r="L537" t="n">
-        <v>0</v>
-      </c>
-      <c r="M537" t="n">
-        <v>0</v>
-      </c>
-      <c r="N537" t="n">
-        <v>0</v>
-      </c>
-      <c r="O537" t="n">
-        <v>0</v>
-      </c>
-      <c r="P537" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q537" t="n">
-        <v>0</v>
-      </c>
-      <c r="R537" t="n">
-        <v>0</v>
-      </c>
-      <c r="S537" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="F538" t="n">
-        <v>8</v>
-      </c>
-      <c r="G538" t="n">
-        <v>0</v>
-      </c>
-      <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="n">
-        <v>8</v>
-      </c>
-      <c r="J538" t="n">
-        <v>0</v>
-      </c>
-      <c r="K538" t="n">
-        <v>0</v>
-      </c>
-      <c r="L538" t="n">
-        <v>0</v>
-      </c>
-      <c r="M538" t="n">
-        <v>8</v>
-      </c>
-      <c r="N538" t="n">
-        <v>0</v>
-      </c>
-      <c r="O538" t="n">
-        <v>0</v>
-      </c>
-      <c r="P538" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q538" t="n">
-        <v>0</v>
-      </c>
-      <c r="R538" t="n">
-        <v>0</v>
-      </c>
-      <c r="S538" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="556">
-      <c r="F556" t="n">
-        <v>150</v>
-      </c>
-      <c r="G556" t="n">
-        <v>150</v>
-      </c>
-      <c r="H556" t="n">
-        <v>150</v>
-      </c>
-      <c r="M556" t="n">
-        <v>150</v>
-      </c>
-      <c r="N556" t="n">
-        <v>150</v>
-      </c>
-      <c r="O556" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="557">
-      <c r="F557" t="n">
-        <v>140</v>
-      </c>
-      <c r="G557" t="n">
-        <v>140</v>
-      </c>
-      <c r="H557" t="n">
-        <v>140</v>
-      </c>
-      <c r="M557" t="n">
-        <v>140</v>
-      </c>
-      <c r="N557" t="n">
-        <v>140</v>
-      </c>
-      <c r="O557" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="558">
-      <c r="H558" t="n">
-        <v>189</v>
-      </c>
-      <c r="O558" t="n">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="559">
-      <c r="I559" t="n">
-        <v>208</v>
-      </c>
-      <c r="P559" t="n">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="560">
-      <c r="F560" t="n">
-        <v>88</v>
-      </c>
-      <c r="M560" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="561">
-      <c r="M561" t="n">
-        <v>26</v>
-      </c>
-      <c r="O561" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="562">
-      <c r="F562" t="n">
-        <v>100</v>
-      </c>
-      <c r="G562" t="n">
-        <v>100</v>
-      </c>
-      <c r="H562" t="n">
-        <v>100</v>
-      </c>
-      <c r="I562" t="n">
-        <v>100</v>
-      </c>
-      <c r="T562" t="n">
-        <v>100</v>
-      </c>
-      <c r="U562" t="n">
-        <v>100</v>
-      </c>
-      <c r="V562" t="n">
-        <v>100</v>
-      </c>
-      <c r="W562" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="563">
-      <c r="L563" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Z563" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="F585" t="n">
-        <v>8</v>
-      </c>
-      <c r="G585" t="n">
-        <v>0</v>
-      </c>
-      <c r="H585" t="n">
-        <v>8</v>
-      </c>
-      <c r="I585" t="n">
-        <v>0</v>
-      </c>
-      <c r="J585" t="n">
-        <v>0</v>
-      </c>
-      <c r="K585" t="n">
-        <v>0</v>
-      </c>
-      <c r="L585" t="n">
-        <v>0</v>
-      </c>
-      <c r="M585" t="n">
-        <v>8</v>
-      </c>
-      <c r="N585" t="n">
-        <v>0</v>
-      </c>
-      <c r="O585" t="n">
-        <v>8</v>
-      </c>
-      <c r="P585" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q585" t="n">
-        <v>0</v>
-      </c>
-      <c r="R585" t="n">
-        <v>0</v>
-      </c>
-      <c r="S585" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="600">
-      <c r="F600" t="n">
-        <v>8</v>
-      </c>
-      <c r="G600" t="n">
-        <v>8</v>
-      </c>
-      <c r="H600" t="n">
-        <v>8</v>
-      </c>
-      <c r="I600" t="n">
-        <v>4</v>
-      </c>
-      <c r="J600" t="n">
-        <v>0</v>
-      </c>
-      <c r="K600" t="n">
-        <v>0</v>
-      </c>
-      <c r="L600" t="n">
-        <v>0</v>
-      </c>
-      <c r="T600" t="n">
-        <v>8</v>
-      </c>
-      <c r="U600" t="n">
-        <v>8</v>
-      </c>
-      <c r="V600" t="n">
-        <v>8</v>
-      </c>
-      <c r="W600" t="n">
-        <v>4</v>
-      </c>
-      <c r="X600" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y600" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z600" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5110">
-      <c r="F5110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5110" t="n">
-        <v>8</v>
-      </c>
-      <c r="H5110" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5110" t="n">
-        <v>8</v>
-      </c>
-      <c r="J5110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5110" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5110" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5110" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5110" t="n">
-        <v>8</v>
-      </c>
-      <c r="O5110" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5110" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q5110" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5110" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5120">
-      <c r="F5120" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G5120" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H5120" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I5120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5120" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5120" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5120" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N5120" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O5120" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P5120" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5120" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5120" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5121">
-      <c r="F5121" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5121" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5121" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J5121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5121" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5121" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5121" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5121" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5121" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5121" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q5121" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5121" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5139">
-      <c r="F5139" t="n">
-        <v>8</v>
-      </c>
-      <c r="G5139" t="n">
-        <v>8</v>
-      </c>
-      <c r="H5139" t="n">
-        <v>8</v>
-      </c>
-      <c r="I5139" t="n">
-        <v>8</v>
-      </c>
-      <c r="J5139" t="n">
-        <v>8</v>
-      </c>
-      <c r="K5139" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5139" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5139" t="n">
-        <v>8</v>
-      </c>
-      <c r="N5139" t="n">
-        <v>8</v>
-      </c>
-      <c r="O5139" t="n">
-        <v>8</v>
-      </c>
-      <c r="P5139" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q5139" t="n">
-        <v>8</v>
-      </c>
-      <c r="R5139" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5139" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5140">
-      <c r="F5140" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5140" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5140" t="n">
-        <v>9</v>
-      </c>
-      <c r="J5140" t="n">
-        <v>9</v>
-      </c>
-      <c r="K5140" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5140" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5140" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5140" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5140" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5140" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q5140" t="n">
-        <v>9</v>
-      </c>
-      <c r="R5140" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5140" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5141">
-      <c r="F5141" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5141" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5141" t="n">
-        <v>9</v>
-      </c>
-      <c r="J5141" t="n">
-        <v>9</v>
-      </c>
-      <c r="K5141" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5141" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5141" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5141" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5141" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5141" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q5141" t="n">
-        <v>9</v>
-      </c>
-      <c r="R5141" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5141" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5142">
-      <c r="F5142" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5142" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5142" t="n">
-        <v>9</v>
-      </c>
-      <c r="J5142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5142" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5142" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5142" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5142" t="n">
-        <v>9</v>
-      </c>
-      <c r="O5142" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5142" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5142" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5142" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5142" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5142" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5142" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5142" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5142" t="n">
-        <v>9</v>
-      </c>
-      <c r="X5142" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5142" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5142" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5143">
-      <c r="F5143" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5143" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5143" t="n">
-        <v>9</v>
-      </c>
-      <c r="K5143" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5143" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5143" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5143" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5143" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5143" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5143" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y5143" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5143" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5144">
-      <c r="F5144" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5144" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5144" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5144" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5144" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5144" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5144" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5144" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5144" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5144" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5144" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5144" t="n">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="383">
@@ -12892,13 +11810,13 @@
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A83:B83"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A83:B83"/>
     <mergeCell ref="A143:B143"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="S155:T155"/>
-    <mergeCell ref="A36:B36"/>
     <mergeCell ref="C128:D128"/>
     <mergeCell ref="C113:D113"/>
     <mergeCell ref="A78:B78"/>
@@ -13202,8 +12120,8 @@
     <mergeCell ref="C75:D75"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A168:D168"/>
     <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A168:D168"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="A106:B106"/>
@@ -13214,8 +12132,8 @@
     <mergeCell ref="C101:D101"/>
     <mergeCell ref="A130:B130"/>
     <mergeCell ref="A138:B138"/>
+    <mergeCell ref="E165:F165"/>
     <mergeCell ref="A132:B132"/>
-    <mergeCell ref="E165:F165"/>
     <mergeCell ref="H159:J159"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="M4:S4"/>
@@ -13227,8 +12145,8 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A125:B125"/>
     <mergeCell ref="A112:B112"/>
+    <mergeCell ref="AA160:AB160"/>
     <mergeCell ref="Z2:AT3"/>
-    <mergeCell ref="AA160:AB160"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="A127:B127"/>
